--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c104_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c104_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2804" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5608" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -390,10 +402,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -437,28 +449,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="A11" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="2">
+      <c r="C11" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -483,28 +495,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="2">
+      <c r="I13" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -592,10 +604,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="J16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -639,28 +651,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="2">
+      <c r="A18" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="2">
+      <c r="C18" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -685,28 +697,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="2">
+      <c r="D20" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="2">
+      <c r="I20" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -765,10 +777,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="2" t="s">
+      <c r="J22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -812,28 +824,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="A24" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="2">
+      <c r="C24" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -858,28 +870,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="2">
+      <c r="D26" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="2">
+      <c r="I26" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -938,10 +950,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="2" t="s">
+      <c r="J28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -985,28 +997,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="2">
+      <c r="A30" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s" s="2">
+      <c r="C30" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1031,28 +1043,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="2">
+      <c r="C32" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="2">
+      <c r="D32" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="2">
+      <c r="I32" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1111,10 +1123,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="2" t="s">
+      <c r="J34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1158,28 +1170,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="2">
+      <c r="A36" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s" s="2">
+      <c r="C36" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1204,28 +1216,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="2">
+      <c r="I38" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1284,10 +1296,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="2" t="s">
+      <c r="J40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1331,28 +1343,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="2">
+      <c r="A42" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s" s="2">
+      <c r="C42" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1377,28 +1389,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="2">
+      <c r="I44" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1486,10 +1498,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="2" t="s">
+      <c r="J47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1533,28 +1545,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="2">
+      <c r="A49" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s" s="2">
+      <c r="C49" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1579,28 +1591,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="2">
+      <c r="D51" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="2">
+      <c r="I51" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1688,10 +1700,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="2" t="s">
+      <c r="J54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1735,28 +1747,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="2">
+      <c r="A56" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="2">
+      <c r="C56" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1781,28 +1793,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="2">
+      <c r="C58" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="2">
+      <c r="D58" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="2">
+      <c r="I58" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1919,10 +1931,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K62" s="2" t="s">
+      <c r="J62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -1966,28 +1978,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="2">
+      <c r="A64" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s" s="2">
+      <c r="C64" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2012,28 +2024,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="2">
+      <c r="C66" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="2">
+      <c r="D66" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="2">
+      <c r="I66" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2121,10 +2133,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="2" t="s">
+      <c r="J69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2168,28 +2180,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="2">
+      <c r="C71" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2214,28 +2226,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2381,10 +2393,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="2" t="s">
+      <c r="J78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2428,28 +2440,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="2">
+      <c r="A80" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="2">
+      <c r="C80" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2474,28 +2486,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="2">
+      <c r="C82" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="2">
+      <c r="D82" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="2">
+      <c r="I82" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2583,10 +2595,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="2" t="s">
+      <c r="J85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2630,28 +2642,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="2">
+      <c r="A87" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="2">
+      <c r="C87" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2676,28 +2688,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="2">
+      <c r="I89" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2785,10 +2797,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="2" t="s">
+      <c r="J92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2832,28 +2844,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="2">
+      <c r="A94" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="2">
+      <c r="C94" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2878,28 +2890,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="C96" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="2">
+      <c r="D96" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="2">
+      <c r="I96" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3045,10 +3057,10 @@
       <c r="I101">
         <f>((C101-C100)^2+(D101- D100)^2)^.5</f>
       </c>
-      <c r="J101" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K101" s="2" t="s">
+      <c r="J101" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K101" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L101" t="n">
@@ -3092,28 +3104,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="2">
+      <c r="A103" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C103" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D103" t="s" s="2">
+      <c r="C103" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3138,28 +3150,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C105" t="s" s="2">
+      <c r="C105" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D105" t="s" s="2">
+      <c r="D105" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I105" t="s" s="2">
+      <c r="I105" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3305,10 +3317,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K110" s="2" t="s">
+      <c r="J110" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K110" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3352,28 +3364,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="2">
+      <c r="A112" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s" s="2">
+      <c r="C112" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3398,28 +3410,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="2">
+      <c r="C114" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="2">
+      <c r="D114" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="2">
+      <c r="I114" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3507,10 +3519,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="2" t="s">
+      <c r="J117" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3554,28 +3566,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="2">
+      <c r="A119" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="2">
+      <c r="C119" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3600,28 +3612,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="2">
+      <c r="C121" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="2">
+      <c r="D121" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="2">
+      <c r="I121" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3709,10 +3721,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="2" t="s">
+      <c r="J124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3756,28 +3768,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="2">
+      <c r="A126" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="2">
+      <c r="C126" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3802,28 +3814,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="2">
+      <c r="I128" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3882,10 +3894,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="2" t="s">
+      <c r="J130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3929,28 +3941,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="2">
+      <c r="A132" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="2">
+      <c r="C132" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3975,28 +3987,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="2">
+      <c r="C134" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="2">
+      <c r="D134" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="2">
+      <c r="I134" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4055,10 +4067,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="2" t="s">
+      <c r="J136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4102,28 +4114,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="2">
+      <c r="A138" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="2">
+      <c r="C138" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4148,28 +4160,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="C140" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="2">
+      <c r="D140" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="2">
+      <c r="I140" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4228,10 +4240,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K142" s="2" t="s">
+      <c r="J142" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K142" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4275,28 +4287,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="2">
+      <c r="A144" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s" s="2">
+      <c r="C144" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4321,28 +4333,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="2">
+      <c r="I146" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4401,10 +4413,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K148" s="2" t="s">
+      <c r="J148" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K148" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4448,28 +4460,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="2">
+      <c r="A150" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s" s="2">
+      <c r="C150" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4494,28 +4506,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="C152" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="2">
+      <c r="D152" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="2">
+      <c r="I152" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4574,10 +4586,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="2" t="s">
+      <c r="J154" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4621,28 +4633,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="2">
+      <c r="A156" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s" s="2">
+      <c r="C156" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4667,28 +4679,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="2">
+      <c r="I158" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4747,10 +4759,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K160" s="2" t="s">
+      <c r="J160" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K160" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4794,28 +4806,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="2">
+      <c r="A162" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s" s="2">
+      <c r="C162" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4840,28 +4852,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="2">
+      <c r="C164" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="2">
+      <c r="D164" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="2">
+      <c r="I164" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4920,10 +4932,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K166" s="2" t="s">
+      <c r="J166" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4967,28 +4979,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="2">
+      <c r="A168" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s" s="2">
+      <c r="C168" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5013,28 +5025,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="C170" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="2">
+      <c r="D170" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="2">
+      <c r="I170" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5093,10 +5105,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K172" s="2" t="s">
+      <c r="J172" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5140,28 +5152,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="2">
+      <c r="A174" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s" s="2">
+      <c r="C174" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5186,28 +5198,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="2">
+      <c r="C176" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="2">
+      <c r="D176" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="2">
+      <c r="I176" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5266,10 +5278,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="2" t="s">
+      <c r="J178" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5313,28 +5325,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="2">
+      <c r="A180" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="2">
+      <c r="C180" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5359,28 +5371,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="2">
+      <c r="C182" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="2">
+      <c r="D182" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="2">
+      <c r="I182" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5439,10 +5451,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="2" t="s">
+      <c r="J184" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5486,28 +5498,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="2">
+      <c r="A186" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="2">
+      <c r="C186" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5532,28 +5544,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="2">
+      <c r="C188" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="2">
+      <c r="D188" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="2">
+      <c r="I188" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5612,10 +5624,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K190" s="2" t="s">
+      <c r="J190" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K190" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5659,28 +5671,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="2">
+      <c r="A192" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s" s="2">
+      <c r="C192" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5705,28 +5717,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="2">
+      <c r="C194" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="2">
+      <c r="D194" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="2">
+      <c r="I194" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5785,10 +5797,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K196" s="2" t="s">
+      <c r="J196" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K196" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
@@ -5832,28 +5844,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s" s="2">
+      <c r="A198" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C198" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D198" t="s" s="2">
+      <c r="C198" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5878,28 +5890,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C200" t="s" s="2">
+      <c r="C200" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D200" t="s" s="2">
+      <c r="D200" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I200" t="s" s="2">
+      <c r="I200" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5958,10 +5970,10 @@
       <c r="I202">
         <f>((C202-C201)^2+(D202- D201)^2)^.5</f>
       </c>
-      <c r="J202" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K202" s="2" t="s">
+      <c r="J202" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L202" t="n">
@@ -6005,28 +6017,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s" s="2">
+      <c r="A204" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C204" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D204" t="s" s="2">
+      <c r="C204" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6051,28 +6063,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C206" t="s" s="2">
+      <c r="C206" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D206" t="s" s="2">
+      <c r="D206" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I206" t="s" s="2">
+      <c r="I206" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6131,10 +6143,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="2" t="s">
+      <c r="J208" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6178,28 +6190,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="2">
+      <c r="A210" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="2">
+      <c r="C210" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6224,28 +6236,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="2">
+      <c r="C212" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="2">
+      <c r="D212" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="2">
+      <c r="I212" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6304,10 +6316,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="2" t="s">
+      <c r="J214" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6351,28 +6363,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="2">
+      <c r="A216" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="2">
+      <c r="C216" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6397,28 +6409,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="2">
+      <c r="C218" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="2">
+      <c r="D218" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="2">
+      <c r="I218" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6477,10 +6489,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="2" t="s">
+      <c r="J220" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6524,28 +6536,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="2">
+      <c r="A222" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="2">
+      <c r="C222" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6570,28 +6582,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="2">
+      <c r="C224" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="2">
+      <c r="D224" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="2">
+      <c r="I224" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6650,10 +6662,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="2" t="s">
+      <c r="J226" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
@@ -6697,28 +6709,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="2">
+      <c r="A228" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C228" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D228" t="s" s="2">
+      <c r="C228" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6743,28 +6755,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s" s="2">
+      <c r="B230" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C230" t="s" s="2">
+      <c r="C230" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D230" t="s" s="2">
+      <c r="D230" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E230" t="s" s="2">
+      <c r="E230" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F230" t="s" s="2">
+      <c r="F230" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G230" t="s" s="2">
+      <c r="G230" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H230" t="s" s="2">
+      <c r="H230" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I230" t="s" s="2">
+      <c r="I230" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6823,10 +6835,10 @@
       <c r="I232">
         <f>((C232-C231)^2+(D232- D231)^2)^.5</f>
       </c>
-      <c r="J232" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K232" s="2" t="s">
+      <c r="J232" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L232" t="n">
@@ -6870,28 +6882,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="2">
+      <c r="A234" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C234" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D234" t="s" s="2">
+      <c r="C234" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6916,28 +6928,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C236" t="s" s="2">
+      <c r="C236" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D236" t="s" s="2">
+      <c r="D236" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I236" t="s" s="2">
+      <c r="I236" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6996,10 +7008,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="2" t="s">
+      <c r="J238" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7043,28 +7055,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="2">
+      <c r="A240" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="2">
+      <c r="C240" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7089,28 +7101,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="2">
+      <c r="C242" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="2">
+      <c r="D242" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="2">
+      <c r="I242" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7169,10 +7181,10 @@
       <c r="I244">
         <f>((C244-C243)^2+(D244- D243)^2)^.5</f>
       </c>
-      <c r="J244" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K244" s="2" t="s">
+      <c r="J244" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K244" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L244" t="n">
@@ -7216,28 +7228,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="s" s="2">
+      <c r="A246" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C246" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D246" t="s" s="2">
+      <c r="C246" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7262,28 +7274,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C248" t="s" s="2">
+      <c r="C248" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D248" t="s" s="2">
+      <c r="D248" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I248" t="s" s="2">
+      <c r="I248" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7342,10 +7354,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="2" t="s">
+      <c r="J250" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7389,28 +7401,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="2">
+      <c r="A252" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="2">
+      <c r="C252" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7435,28 +7447,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="2">
+      <c r="C254" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="2">
+      <c r="D254" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="2">
+      <c r="I254" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7515,10 +7527,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="2" t="s">
+      <c r="J256" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">
@@ -7562,28 +7574,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="s" s="2">
+      <c r="A258" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B258" t="s" s="2">
+      <c r="B258" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C258" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D258" t="s" s="2">
+      <c r="C258" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D258" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E258" t="s" s="2">
+      <c r="E258" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F258" t="s" s="2">
+      <c r="F258" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G258" t="s" s="2">
+      <c r="G258" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H258" t="s" s="2">
+      <c r="H258" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7608,28 +7620,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="B260" t="s" s="2">
+      <c r="B260" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C260" t="s" s="2">
+      <c r="C260" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D260" t="s" s="2">
+      <c r="D260" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E260" t="s" s="2">
+      <c r="E260" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F260" t="s" s="2">
+      <c r="F260" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G260" t="s" s="2">
+      <c r="G260" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H260" t="s" s="2">
+      <c r="H260" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I260" t="s" s="2">
+      <c r="I260" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7688,10 +7700,10 @@
       <c r="I262">
         <f>((C262-C261)^2+(D262- D261)^2)^.5</f>
       </c>
-      <c r="J262" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K262" s="2" t="s">
+      <c r="J262" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K262" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L262" t="n">
@@ -7735,28 +7747,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="s" s="2">
+      <c r="A264" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C264" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D264" t="s" s="2">
+      <c r="C264" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D264" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7781,28 +7793,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="B266" t="s" s="2">
+      <c r="B266" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C266" t="s" s="2">
+      <c r="C266" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D266" t="s" s="2">
+      <c r="D266" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E266" t="s" s="2">
+      <c r="E266" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F266" t="s" s="2">
+      <c r="F266" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G266" t="s" s="2">
+      <c r="G266" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H266" t="s" s="2">
+      <c r="H266" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I266" t="s" s="2">
+      <c r="I266" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7861,10 +7873,10 @@
       <c r="I268">
         <f>((C268-C267)^2+(D268- D267)^2)^.5</f>
       </c>
-      <c r="J268" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K268" s="2" t="s">
+      <c r="J268" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K268" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L268" t="n">
@@ -7908,28 +7920,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s" s="2">
+      <c r="A270" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B270" t="s" s="2">
+      <c r="B270" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C270" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D270" t="s" s="2">
+      <c r="C270" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D270" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E270" t="s" s="2">
+      <c r="E270" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F270" t="s" s="2">
+      <c r="F270" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G270" t="s" s="2">
+      <c r="G270" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H270" t="s" s="2">
+      <c r="H270" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7954,28 +7966,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="B272" t="s" s="2">
+      <c r="B272" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C272" t="s" s="2">
+      <c r="C272" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D272" t="s" s="2">
+      <c r="D272" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E272" t="s" s="2">
+      <c r="E272" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F272" t="s" s="2">
+      <c r="F272" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G272" t="s" s="2">
+      <c r="G272" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H272" t="s" s="2">
+      <c r="H272" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I272" t="s" s="2">
+      <c r="I272" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8034,10 +8046,10 @@
       <c r="I274">
         <f>((C274-C273)^2+(D274- D273)^2)^.5</f>
       </c>
-      <c r="J274" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K274" s="2" t="s">
+      <c r="J274" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K274" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L274" t="n">
@@ -8081,28 +8093,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="s" s="2">
+      <c r="A276" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B276" t="s" s="2">
+      <c r="B276" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C276" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D276" t="s" s="2">
+      <c r="C276" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D276" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E276" t="s" s="2">
+      <c r="E276" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F276" t="s" s="2">
+      <c r="F276" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G276" t="s" s="2">
+      <c r="G276" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H276" t="s" s="2">
+      <c r="H276" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8127,28 +8139,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="B278" t="s" s="2">
+      <c r="B278" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C278" t="s" s="2">
+      <c r="C278" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D278" t="s" s="2">
+      <c r="D278" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E278" t="s" s="2">
+      <c r="E278" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F278" t="s" s="2">
+      <c r="F278" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G278" t="s" s="2">
+      <c r="G278" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H278" t="s" s="2">
+      <c r="H278" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I278" t="s" s="2">
+      <c r="I278" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8207,10 +8219,10 @@
       <c r="I280">
         <f>((C280-C279)^2+(D280- D279)^2)^.5</f>
       </c>
-      <c r="J280" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K280" s="2" t="s">
+      <c r="J280" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K280" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L280" t="n">
@@ -8254,28 +8266,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="s" s="2">
+      <c r="A282" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B282" t="s" s="2">
+      <c r="B282" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C282" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D282" t="s" s="2">
+      <c r="C282" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D282" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E282" t="s" s="2">
+      <c r="E282" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F282" t="s" s="2">
+      <c r="F282" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G282" t="s" s="2">
+      <c r="G282" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H282" t="s" s="2">
+      <c r="H282" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8300,28 +8312,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="B284" t="s" s="2">
+      <c r="B284" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C284" t="s" s="2">
+      <c r="C284" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D284" t="s" s="2">
+      <c r="D284" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E284" t="s" s="2">
+      <c r="E284" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F284" t="s" s="2">
+      <c r="F284" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G284" t="s" s="2">
+      <c r="G284" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H284" t="s" s="2">
+      <c r="H284" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I284" t="s" s="2">
+      <c r="I284" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8380,10 +8392,10 @@
       <c r="I286">
         <f>((C286-C285)^2+(D286- D285)^2)^.5</f>
       </c>
-      <c r="J286" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K286" s="2" t="s">
+      <c r="J286" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K286" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L286" t="n">
@@ -8427,28 +8439,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="s" s="2">
+      <c r="A288" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B288" t="s" s="2">
+      <c r="B288" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C288" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D288" t="s" s="2">
+      <c r="C288" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D288" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E288" t="s" s="2">
+      <c r="E288" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F288" t="s" s="2">
+      <c r="F288" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G288" t="s" s="2">
+      <c r="G288" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H288" t="s" s="2">
+      <c r="H288" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8473,28 +8485,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="B290" t="s" s="2">
+      <c r="B290" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C290" t="s" s="2">
+      <c r="C290" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D290" t="s" s="2">
+      <c r="D290" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E290" t="s" s="2">
+      <c r="E290" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F290" t="s" s="2">
+      <c r="F290" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G290" t="s" s="2">
+      <c r="G290" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H290" t="s" s="2">
+      <c r="H290" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I290" t="s" s="2">
+      <c r="I290" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8553,10 +8565,10 @@
       <c r="I292">
         <f>((C292-C291)^2+(D292- D291)^2)^.5</f>
       </c>
-      <c r="J292" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K292" s="2" t="s">
+      <c r="J292" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K292" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L292" t="n">
@@ -8600,28 +8612,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="s" s="2">
+      <c r="A294" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B294" t="s" s="2">
+      <c r="B294" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C294" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D294" t="s" s="2">
+      <c r="C294" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D294" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E294" t="s" s="2">
+      <c r="E294" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F294" t="s" s="2">
+      <c r="F294" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G294" t="s" s="2">
+      <c r="G294" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H294" t="s" s="2">
+      <c r="H294" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8646,28 +8658,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="B296" t="s" s="2">
+      <c r="B296" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C296" t="s" s="2">
+      <c r="C296" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D296" t="s" s="2">
+      <c r="D296" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E296" t="s" s="2">
+      <c r="E296" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F296" t="s" s="2">
+      <c r="F296" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G296" t="s" s="2">
+      <c r="G296" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H296" t="s" s="2">
+      <c r="H296" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I296" t="s" s="2">
+      <c r="I296" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8726,10 +8738,10 @@
       <c r="I298">
         <f>((C298-C297)^2+(D298- D297)^2)^.5</f>
       </c>
-      <c r="J298" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K298" s="2" t="s">
+      <c r="J298" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K298" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L298" t="n">
@@ -8773,28 +8785,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="s" s="2">
+      <c r="A300" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B300" t="s" s="2">
+      <c r="B300" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C300" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D300" t="s" s="2">
+      <c r="C300" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D300" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E300" t="s" s="2">
+      <c r="E300" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F300" t="s" s="2">
+      <c r="F300" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G300" t="s" s="2">
+      <c r="G300" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H300" t="s" s="2">
+      <c r="H300" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8819,28 +8831,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="B302" t="s" s="2">
+      <c r="B302" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C302" t="s" s="2">
+      <c r="C302" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D302" t="s" s="2">
+      <c r="D302" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E302" t="s" s="2">
+      <c r="E302" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F302" t="s" s="2">
+      <c r="F302" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G302" t="s" s="2">
+      <c r="G302" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H302" t="s" s="2">
+      <c r="H302" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I302" t="s" s="2">
+      <c r="I302" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8899,10 +8911,10 @@
       <c r="I304">
         <f>((C304-C303)^2+(D304- D303)^2)^.5</f>
       </c>
-      <c r="J304" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K304" s="2" t="s">
+      <c r="J304" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K304" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L304" t="n">
@@ -8946,28 +8958,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="s" s="2">
+      <c r="A306" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B306" t="s" s="2">
+      <c r="B306" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C306" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D306" t="s" s="2">
+      <c r="C306" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D306" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E306" t="s" s="2">
+      <c r="E306" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F306" t="s" s="2">
+      <c r="F306" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G306" t="s" s="2">
+      <c r="G306" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H306" t="s" s="2">
+      <c r="H306" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8992,28 +9004,28 @@
       </c>
     </row>
     <row r="308">
-      <c r="B308" t="s" s="2">
+      <c r="B308" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C308" t="s" s="2">
+      <c r="C308" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D308" t="s" s="2">
+      <c r="D308" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E308" t="s" s="2">
+      <c r="E308" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F308" t="s" s="2">
+      <c r="F308" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G308" t="s" s="2">
+      <c r="G308" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H308" t="s" s="2">
+      <c r="H308" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I308" t="s" s="2">
+      <c r="I308" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9072,10 +9084,10 @@
       <c r="I310">
         <f>((C310-C309)^2+(D310- D309)^2)^.5</f>
       </c>
-      <c r="J310" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K310" s="2" t="s">
+      <c r="J310" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K310" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L310" t="n">
@@ -9119,28 +9131,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="s" s="2">
+      <c r="A312" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B312" t="s" s="2">
+      <c r="B312" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C312" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D312" t="s" s="2">
+      <c r="C312" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D312" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E312" t="s" s="2">
+      <c r="E312" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F312" t="s" s="2">
+      <c r="F312" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G312" t="s" s="2">
+      <c r="G312" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H312" t="s" s="2">
+      <c r="H312" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9165,28 +9177,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="B314" t="s" s="2">
+      <c r="B314" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C314" t="s" s="2">
+      <c r="C314" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D314" t="s" s="2">
+      <c r="D314" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E314" t="s" s="2">
+      <c r="E314" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F314" t="s" s="2">
+      <c r="F314" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G314" t="s" s="2">
+      <c r="G314" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H314" t="s" s="2">
+      <c r="H314" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I314" t="s" s="2">
+      <c r="I314" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9245,10 +9257,10 @@
       <c r="I316">
         <f>((C316-C315)^2+(D316- D315)^2)^.5</f>
       </c>
-      <c r="J316" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K316" s="2" t="s">
+      <c r="J316" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K316" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L316" t="n">
@@ -9292,28 +9304,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="s" s="2">
+      <c r="A318" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B318" t="s" s="2">
+      <c r="B318" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C318" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D318" t="s" s="2">
+      <c r="C318" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D318" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E318" t="s" s="2">
+      <c r="E318" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F318" t="s" s="2">
+      <c r="F318" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G318" t="s" s="2">
+      <c r="G318" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H318" t="s" s="2">
+      <c r="H318" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9338,28 +9350,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="B320" t="s" s="2">
+      <c r="B320" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C320" t="s" s="2">
+      <c r="C320" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D320" t="s" s="2">
+      <c r="D320" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E320" t="s" s="2">
+      <c r="E320" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F320" t="s" s="2">
+      <c r="F320" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G320" t="s" s="2">
+      <c r="G320" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H320" t="s" s="2">
+      <c r="H320" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I320" t="s" s="2">
+      <c r="I320" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9418,10 +9430,10 @@
       <c r="I322">
         <f>((C322-C321)^2+(D322- D321)^2)^.5</f>
       </c>
-      <c r="J322" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K322" s="2" t="s">
+      <c r="J322" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K322" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L322" t="n">
@@ -9465,28 +9477,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="s" s="2">
+      <c r="A324" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B324" t="s" s="2">
+      <c r="B324" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C324" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D324" t="s" s="2">
+      <c r="C324" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D324" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E324" t="s" s="2">
+      <c r="E324" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F324" t="s" s="2">
+      <c r="F324" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G324" t="s" s="2">
+      <c r="G324" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H324" t="s" s="2">
+      <c r="H324" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9511,28 +9523,28 @@
       </c>
     </row>
     <row r="326">
-      <c r="B326" t="s" s="2">
+      <c r="B326" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C326" t="s" s="2">
+      <c r="C326" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D326" t="s" s="2">
+      <c r="D326" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E326" t="s" s="2">
+      <c r="E326" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F326" t="s" s="2">
+      <c r="F326" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G326" t="s" s="2">
+      <c r="G326" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H326" t="s" s="2">
+      <c r="H326" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I326" t="s" s="2">
+      <c r="I326" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9591,10 +9603,10 @@
       <c r="I328">
         <f>((C328-C327)^2+(D328- D327)^2)^.5</f>
       </c>
-      <c r="J328" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K328" s="2" t="s">
+      <c r="J328" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K328" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L328" t="n">
@@ -9638,28 +9650,28 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="s" s="2">
+      <c r="A330" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B330" t="s" s="2">
+      <c r="B330" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C330" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D330" t="s" s="2">
+      <c r="C330" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D330" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E330" t="s" s="2">
+      <c r="E330" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F330" t="s" s="2">
+      <c r="F330" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G330" t="s" s="2">
+      <c r="G330" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H330" t="s" s="2">
+      <c r="H330" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9684,28 +9696,28 @@
       </c>
     </row>
     <row r="332">
-      <c r="B332" t="s" s="2">
+      <c r="B332" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C332" t="s" s="2">
+      <c r="C332" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D332" t="s" s="2">
+      <c r="D332" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E332" t="s" s="2">
+      <c r="E332" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F332" t="s" s="2">
+      <c r="F332" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G332" t="s" s="2">
+      <c r="G332" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H332" t="s" s="2">
+      <c r="H332" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I332" t="s" s="2">
+      <c r="I332" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9764,10 +9776,10 @@
       <c r="I334">
         <f>((C334-C333)^2+(D334- D333)^2)^.5</f>
       </c>
-      <c r="J334" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K334" s="2" t="s">
+      <c r="J334" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K334" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L334" t="n">
@@ -9811,28 +9823,28 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="s" s="2">
+      <c r="A336" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B336" t="s" s="2">
+      <c r="B336" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C336" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D336" t="s" s="2">
+      <c r="C336" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D336" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E336" t="s" s="2">
+      <c r="E336" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F336" t="s" s="2">
+      <c r="F336" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G336" t="s" s="2">
+      <c r="G336" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H336" t="s" s="2">
+      <c r="H336" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9857,28 +9869,28 @@
       </c>
     </row>
     <row r="338">
-      <c r="B338" t="s" s="2">
+      <c r="B338" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C338" t="s" s="2">
+      <c r="C338" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D338" t="s" s="2">
+      <c r="D338" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E338" t="s" s="2">
+      <c r="E338" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F338" t="s" s="2">
+      <c r="F338" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G338" t="s" s="2">
+      <c r="G338" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H338" t="s" s="2">
+      <c r="H338" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I338" t="s" s="2">
+      <c r="I338" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9937,10 +9949,10 @@
       <c r="I340">
         <f>((C340-C339)^2+(D340- D339)^2)^.5</f>
       </c>
-      <c r="J340" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K340" s="2" t="s">
+      <c r="J340" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K340" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L340" t="n">
@@ -9984,28 +9996,28 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="s" s="2">
+      <c r="A342" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B342" t="s" s="2">
+      <c r="B342" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C342" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D342" t="s" s="2">
+      <c r="C342" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D342" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E342" t="s" s="2">
+      <c r="E342" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F342" t="s" s="2">
+      <c r="F342" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G342" t="s" s="2">
+      <c r="G342" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H342" t="s" s="2">
+      <c r="H342" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10030,28 +10042,28 @@
       </c>
     </row>
     <row r="344">
-      <c r="B344" t="s" s="2">
+      <c r="B344" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C344" t="s" s="2">
+      <c r="C344" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D344" t="s" s="2">
+      <c r="D344" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E344" t="s" s="2">
+      <c r="E344" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F344" t="s" s="2">
+      <c r="F344" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G344" t="s" s="2">
+      <c r="G344" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H344" t="s" s="2">
+      <c r="H344" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I344" t="s" s="2">
+      <c r="I344" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10139,10 +10151,10 @@
       <c r="I347">
         <f>((C347-C346)^2+(D347- D346)^2)^.5</f>
       </c>
-      <c r="J347" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K347" s="2" t="s">
+      <c r="J347" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K347" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L347" t="n">
@@ -10186,28 +10198,28 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="s" s="2">
+      <c r="A349" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B349" t="s" s="2">
+      <c r="B349" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C349" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D349" t="s" s="2">
+      <c r="C349" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D349" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E349" t="s" s="2">
+      <c r="E349" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F349" t="s" s="2">
+      <c r="F349" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G349" t="s" s="2">
+      <c r="G349" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H349" t="s" s="2">
+      <c r="H349" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10232,28 +10244,28 @@
       </c>
     </row>
     <row r="351">
-      <c r="B351" t="s" s="2">
+      <c r="B351" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C351" t="s" s="2">
+      <c r="C351" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D351" t="s" s="2">
+      <c r="D351" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E351" t="s" s="2">
+      <c r="E351" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F351" t="s" s="2">
+      <c r="F351" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G351" t="s" s="2">
+      <c r="G351" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H351" t="s" s="2">
+      <c r="H351" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I351" t="s" s="2">
+      <c r="I351" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10312,10 +10324,10 @@
       <c r="I353">
         <f>((C353-C352)^2+(D353- D352)^2)^.5</f>
       </c>
-      <c r="J353" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K353" s="2" t="s">
+      <c r="J353" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K353" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L353" t="n">
@@ -10359,28 +10371,28 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="s" s="2">
+      <c r="A355" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B355" t="s" s="2">
+      <c r="B355" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C355" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D355" t="s" s="2">
+      <c r="C355" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D355" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E355" t="s" s="2">
+      <c r="E355" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F355" t="s" s="2">
+      <c r="F355" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G355" t="s" s="2">
+      <c r="G355" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H355" t="s" s="2">
+      <c r="H355" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10405,28 +10417,28 @@
       </c>
     </row>
     <row r="357">
-      <c r="B357" t="s" s="2">
+      <c r="B357" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C357" t="s" s="2">
+      <c r="C357" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D357" t="s" s="2">
+      <c r="D357" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E357" t="s" s="2">
+      <c r="E357" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F357" t="s" s="2">
+      <c r="F357" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G357" t="s" s="2">
+      <c r="G357" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H357" t="s" s="2">
+      <c r="H357" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I357" t="s" s="2">
+      <c r="I357" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10485,10 +10497,10 @@
       <c r="I359">
         <f>((C359-C358)^2+(D359- D358)^2)^.5</f>
       </c>
-      <c r="J359" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K359" s="2" t="s">
+      <c r="J359" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K359" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L359" t="n">
@@ -10532,28 +10544,28 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" t="s" s="2">
+      <c r="A361" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B361" t="s" s="2">
+      <c r="B361" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C361" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D361" t="s" s="2">
+      <c r="C361" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D361" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E361" t="s" s="2">
+      <c r="E361" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F361" t="s" s="2">
+      <c r="F361" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G361" t="s" s="2">
+      <c r="G361" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H361" t="s" s="2">
+      <c r="H361" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10578,28 +10590,28 @@
       </c>
     </row>
     <row r="363">
-      <c r="B363" t="s" s="2">
+      <c r="B363" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C363" t="s" s="2">
+      <c r="C363" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D363" t="s" s="2">
+      <c r="D363" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E363" t="s" s="2">
+      <c r="E363" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F363" t="s" s="2">
+      <c r="F363" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G363" t="s" s="2">
+      <c r="G363" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H363" t="s" s="2">
+      <c r="H363" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I363" t="s" s="2">
+      <c r="I363" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10658,10 +10670,10 @@
       <c r="I365">
         <f>((C365-C364)^2+(D365- D364)^2)^.5</f>
       </c>
-      <c r="J365" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K365" s="2" t="s">
+      <c r="J365" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K365" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L365" t="n">
@@ -10705,28 +10717,28 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" t="s" s="2">
+      <c r="A367" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B367" t="s" s="2">
+      <c r="B367" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C367" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D367" t="s" s="2">
+      <c r="C367" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D367" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E367" t="s" s="2">
+      <c r="E367" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F367" t="s" s="2">
+      <c r="F367" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G367" t="s" s="2">
+      <c r="G367" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H367" t="s" s="2">
+      <c r="H367" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10751,28 +10763,28 @@
       </c>
     </row>
     <row r="369">
-      <c r="B369" t="s" s="2">
+      <c r="B369" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C369" t="s" s="2">
+      <c r="C369" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D369" t="s" s="2">
+      <c r="D369" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E369" t="s" s="2">
+      <c r="E369" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F369" t="s" s="2">
+      <c r="F369" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G369" t="s" s="2">
+      <c r="G369" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H369" t="s" s="2">
+      <c r="H369" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I369" t="s" s="2">
+      <c r="I369" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10831,10 +10843,10 @@
       <c r="I371">
         <f>((C371-C370)^2+(D371- D370)^2)^.5</f>
       </c>
-      <c r="J371" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K371" s="2" t="s">
+      <c r="J371" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K371" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L371" t="n">
@@ -10878,28 +10890,28 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" t="s" s="2">
+      <c r="A373" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B373" t="s" s="2">
+      <c r="B373" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C373" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D373" t="s" s="2">
+      <c r="C373" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D373" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E373" t="s" s="2">
+      <c r="E373" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F373" t="s" s="2">
+      <c r="F373" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G373" t="s" s="2">
+      <c r="G373" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H373" t="s" s="2">
+      <c r="H373" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10924,28 +10936,28 @@
       </c>
     </row>
     <row r="375">
-      <c r="B375" t="s" s="2">
+      <c r="B375" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C375" t="s" s="2">
+      <c r="C375" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D375" t="s" s="2">
+      <c r="D375" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E375" t="s" s="2">
+      <c r="E375" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F375" t="s" s="2">
+      <c r="F375" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G375" t="s" s="2">
+      <c r="G375" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H375" t="s" s="2">
+      <c r="H375" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I375" t="s" s="2">
+      <c r="I375" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11004,10 +11016,10 @@
       <c r="I377">
         <f>((C377-C376)^2+(D377- D376)^2)^.5</f>
       </c>
-      <c r="J377" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K377" s="2" t="s">
+      <c r="J377" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K377" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L377" t="n">
@@ -11051,28 +11063,28 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" t="s" s="2">
+      <c r="A379" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B379" t="s" s="2">
+      <c r="B379" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C379" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D379" t="s" s="2">
+      <c r="C379" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D379" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E379" t="s" s="2">
+      <c r="E379" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F379" t="s" s="2">
+      <c r="F379" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G379" t="s" s="2">
+      <c r="G379" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H379" t="s" s="2">
+      <c r="H379" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11097,28 +11109,28 @@
       </c>
     </row>
     <row r="381">
-      <c r="B381" t="s" s="2">
+      <c r="B381" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C381" t="s" s="2">
+      <c r="C381" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D381" t="s" s="2">
+      <c r="D381" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E381" t="s" s="2">
+      <c r="E381" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F381" t="s" s="2">
+      <c r="F381" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G381" t="s" s="2">
+      <c r="G381" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H381" t="s" s="2">
+      <c r="H381" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I381" t="s" s="2">
+      <c r="I381" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11177,10 +11189,10 @@
       <c r="I383">
         <f>((C383-C382)^2+(D383- D382)^2)^.5</f>
       </c>
-      <c r="J383" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K383" s="2" t="s">
+      <c r="J383" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K383" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L383" t="n">
@@ -11224,28 +11236,28 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" t="s" s="2">
+      <c r="A385" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B385" t="s" s="2">
+      <c r="B385" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C385" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D385" t="s" s="2">
+      <c r="C385" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D385" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E385" t="s" s="2">
+      <c r="E385" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F385" t="s" s="2">
+      <c r="F385" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G385" t="s" s="2">
+      <c r="G385" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H385" t="s" s="2">
+      <c r="H385" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11270,28 +11282,28 @@
       </c>
     </row>
     <row r="387">
-      <c r="B387" t="s" s="2">
+      <c r="B387" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C387" t="s" s="2">
+      <c r="C387" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D387" t="s" s="2">
+      <c r="D387" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E387" t="s" s="2">
+      <c r="E387" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F387" t="s" s="2">
+      <c r="F387" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G387" t="s" s="2">
+      <c r="G387" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H387" t="s" s="2">
+      <c r="H387" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I387" t="s" s="2">
+      <c r="I387" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11350,10 +11362,10 @@
       <c r="I389">
         <f>((C389-C388)^2+(D389- D388)^2)^.5</f>
       </c>
-      <c r="J389" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K389" s="2" t="s">
+      <c r="J389" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K389" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L389" t="n">
@@ -11397,28 +11409,28 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" t="s" s="2">
+      <c r="A391" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B391" t="s" s="2">
+      <c r="B391" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C391" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D391" t="s" s="2">
+      <c r="C391" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D391" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E391" t="s" s="2">
+      <c r="E391" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F391" t="s" s="2">
+      <c r="F391" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G391" t="s" s="2">
+      <c r="G391" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H391" t="s" s="2">
+      <c r="H391" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11443,28 +11455,28 @@
       </c>
     </row>
     <row r="393">
-      <c r="B393" t="s" s="2">
+      <c r="B393" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C393" t="s" s="2">
+      <c r="C393" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D393" t="s" s="2">
+      <c r="D393" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E393" t="s" s="2">
+      <c r="E393" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F393" t="s" s="2">
+      <c r="F393" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G393" t="s" s="2">
+      <c r="G393" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H393" t="s" s="2">
+      <c r="H393" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I393" t="s" s="2">
+      <c r="I393" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11523,10 +11535,10 @@
       <c r="I395">
         <f>((C395-C394)^2+(D395- D394)^2)^.5</f>
       </c>
-      <c r="J395" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K395" s="2" t="s">
+      <c r="J395" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K395" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L395" t="n">
@@ -11570,28 +11582,28 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" t="s" s="2">
+      <c r="A397" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B397" t="s" s="2">
+      <c r="B397" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C397" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D397" t="s" s="2">
+      <c r="C397" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D397" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E397" t="s" s="2">
+      <c r="E397" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F397" t="s" s="2">
+      <c r="F397" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G397" t="s" s="2">
+      <c r="G397" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H397" t="s" s="2">
+      <c r="H397" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11616,28 +11628,28 @@
       </c>
     </row>
     <row r="399">
-      <c r="B399" t="s" s="2">
+      <c r="B399" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C399" t="s" s="2">
+      <c r="C399" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D399" t="s" s="2">
+      <c r="D399" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E399" t="s" s="2">
+      <c r="E399" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F399" t="s" s="2">
+      <c r="F399" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G399" t="s" s="2">
+      <c r="G399" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H399" t="s" s="2">
+      <c r="H399" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I399" t="s" s="2">
+      <c r="I399" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11696,10 +11708,10 @@
       <c r="I401">
         <f>((C401-C400)^2+(D401- D400)^2)^.5</f>
       </c>
-      <c r="J401" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K401" s="2" t="s">
+      <c r="J401" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K401" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L401" t="n">
@@ -11743,28 +11755,28 @@
       </c>
     </row>
     <row r="403">
-      <c r="A403" t="s" s="2">
+      <c r="A403" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B403" t="s" s="2">
+      <c r="B403" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C403" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D403" t="s" s="2">
+      <c r="C403" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D403" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E403" t="s" s="2">
+      <c r="E403" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F403" t="s" s="2">
+      <c r="F403" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G403" t="s" s="2">
+      <c r="G403" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H403" t="s" s="2">
+      <c r="H403" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11789,28 +11801,28 @@
       </c>
     </row>
     <row r="405">
-      <c r="B405" t="s" s="2">
+      <c r="B405" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C405" t="s" s="2">
+      <c r="C405" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D405" t="s" s="2">
+      <c r="D405" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E405" t="s" s="2">
+      <c r="E405" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F405" t="s" s="2">
+      <c r="F405" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G405" t="s" s="2">
+      <c r="G405" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H405" t="s" s="2">
+      <c r="H405" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I405" t="s" s="2">
+      <c r="I405" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11869,10 +11881,10 @@
       <c r="I407">
         <f>((C407-C406)^2+(D407- D406)^2)^.5</f>
       </c>
-      <c r="J407" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K407" s="2" t="s">
+      <c r="J407" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K407" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L407" t="n">
@@ -11916,28 +11928,28 @@
       </c>
     </row>
     <row r="409">
-      <c r="A409" t="s" s="2">
+      <c r="A409" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B409" t="s" s="2">
+      <c r="B409" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C409" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D409" t="s" s="2">
+      <c r="C409" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D409" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E409" t="s" s="2">
+      <c r="E409" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F409" t="s" s="2">
+      <c r="F409" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G409" t="s" s="2">
+      <c r="G409" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H409" t="s" s="2">
+      <c r="H409" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11962,28 +11974,28 @@
       </c>
     </row>
     <row r="411">
-      <c r="B411" t="s" s="2">
+      <c r="B411" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C411" t="s" s="2">
+      <c r="C411" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D411" t="s" s="2">
+      <c r="D411" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E411" t="s" s="2">
+      <c r="E411" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F411" t="s" s="2">
+      <c r="F411" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G411" t="s" s="2">
+      <c r="G411" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H411" t="s" s="2">
+      <c r="H411" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I411" t="s" s="2">
+      <c r="I411" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12042,10 +12054,10 @@
       <c r="I413">
         <f>((C413-C412)^2+(D413- D412)^2)^.5</f>
       </c>
-      <c r="J413" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K413" s="2" t="s">
+      <c r="J413" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K413" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L413" t="n">
@@ -12089,28 +12101,28 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" t="s" s="2">
+      <c r="A415" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B415" t="s" s="2">
+      <c r="B415" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C415" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D415" t="s" s="2">
+      <c r="C415" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D415" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E415" t="s" s="2">
+      <c r="E415" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F415" t="s" s="2">
+      <c r="F415" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G415" t="s" s="2">
+      <c r="G415" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H415" t="s" s="2">
+      <c r="H415" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12135,28 +12147,28 @@
       </c>
     </row>
     <row r="417">
-      <c r="B417" t="s" s="2">
+      <c r="B417" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C417" t="s" s="2">
+      <c r="C417" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D417" t="s" s="2">
+      <c r="D417" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E417" t="s" s="2">
+      <c r="E417" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F417" t="s" s="2">
+      <c r="F417" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G417" t="s" s="2">
+      <c r="G417" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H417" t="s" s="2">
+      <c r="H417" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I417" t="s" s="2">
+      <c r="I417" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12215,10 +12227,10 @@
       <c r="I419">
         <f>((C419-C418)^2+(D419- D418)^2)^.5</f>
       </c>
-      <c r="J419" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K419" s="2" t="s">
+      <c r="J419" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K419" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L419" t="n">
@@ -12262,28 +12274,28 @@
       </c>
     </row>
     <row r="421">
-      <c r="A421" t="s" s="2">
+      <c r="A421" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B421" t="s" s="2">
+      <c r="B421" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C421" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D421" t="s" s="2">
+      <c r="C421" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D421" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E421" t="s" s="2">
+      <c r="E421" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F421" t="s" s="2">
+      <c r="F421" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G421" t="s" s="2">
+      <c r="G421" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H421" t="s" s="2">
+      <c r="H421" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12308,28 +12320,28 @@
       </c>
     </row>
     <row r="423">
-      <c r="B423" t="s" s="2">
+      <c r="B423" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C423" t="s" s="2">
+      <c r="C423" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D423" t="s" s="2">
+      <c r="D423" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E423" t="s" s="2">
+      <c r="E423" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F423" t="s" s="2">
+      <c r="F423" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G423" t="s" s="2">
+      <c r="G423" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H423" t="s" s="2">
+      <c r="H423" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I423" t="s" s="2">
+      <c r="I423" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12388,10 +12400,10 @@
       <c r="I425">
         <f>((C425-C424)^2+(D425- D424)^2)^.5</f>
       </c>
-      <c r="J425" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K425" s="2" t="s">
+      <c r="J425" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K425" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L425" t="n">
@@ -12435,28 +12447,28 @@
       </c>
     </row>
     <row r="427">
-      <c r="A427" t="s" s="2">
+      <c r="A427" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B427" t="s" s="2">
+      <c r="B427" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C427" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D427" t="s" s="2">
+      <c r="C427" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D427" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E427" t="s" s="2">
+      <c r="E427" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F427" t="s" s="2">
+      <c r="F427" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G427" t="s" s="2">
+      <c r="G427" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H427" t="s" s="2">
+      <c r="H427" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12481,28 +12493,28 @@
       </c>
     </row>
     <row r="429">
-      <c r="B429" t="s" s="2">
+      <c r="B429" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C429" t="s" s="2">
+      <c r="C429" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D429" t="s" s="2">
+      <c r="D429" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E429" t="s" s="2">
+      <c r="E429" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F429" t="s" s="2">
+      <c r="F429" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G429" t="s" s="2">
+      <c r="G429" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H429" t="s" s="2">
+      <c r="H429" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I429" t="s" s="2">
+      <c r="I429" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12590,10 +12602,10 @@
       <c r="I432">
         <f>((C432-C431)^2+(D432- D431)^2)^.5</f>
       </c>
-      <c r="J432" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K432" s="2" t="s">
+      <c r="J432" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K432" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L432" t="n">
@@ -12637,28 +12649,28 @@
       </c>
     </row>
     <row r="434">
-      <c r="A434" t="s" s="2">
+      <c r="A434" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B434" t="s" s="2">
+      <c r="B434" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C434" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D434" t="s" s="2">
+      <c r="C434" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D434" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E434" t="s" s="2">
+      <c r="E434" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F434" t="s" s="2">
+      <c r="F434" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G434" t="s" s="2">
+      <c r="G434" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H434" t="s" s="2">
+      <c r="H434" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12683,28 +12695,28 @@
       </c>
     </row>
     <row r="436">
-      <c r="B436" t="s" s="2">
+      <c r="B436" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C436" t="s" s="2">
+      <c r="C436" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D436" t="s" s="2">
+      <c r="D436" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E436" t="s" s="2">
+      <c r="E436" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F436" t="s" s="2">
+      <c r="F436" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G436" t="s" s="2">
+      <c r="G436" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H436" t="s" s="2">
+      <c r="H436" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I436" t="s" s="2">
+      <c r="I436" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12763,10 +12775,10 @@
       <c r="I438">
         <f>((C438-C437)^2+(D438- D437)^2)^.5</f>
       </c>
-      <c r="J438" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K438" s="2" t="s">
+      <c r="J438" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K438" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L438" t="n">
@@ -12810,28 +12822,28 @@
       </c>
     </row>
     <row r="440">
-      <c r="A440" t="s" s="2">
+      <c r="A440" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B440" t="s" s="2">
+      <c r="B440" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C440" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D440" t="s" s="2">
+      <c r="C440" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D440" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E440" t="s" s="2">
+      <c r="E440" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F440" t="s" s="2">
+      <c r="F440" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G440" t="s" s="2">
+      <c r="G440" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H440" t="s" s="2">
+      <c r="H440" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12856,28 +12868,28 @@
       </c>
     </row>
     <row r="442">
-      <c r="B442" t="s" s="2">
+      <c r="B442" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C442" t="s" s="2">
+      <c r="C442" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D442" t="s" s="2">
+      <c r="D442" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E442" t="s" s="2">
+      <c r="E442" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F442" t="s" s="2">
+      <c r="F442" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G442" t="s" s="2">
+      <c r="G442" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H442" t="s" s="2">
+      <c r="H442" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I442" t="s" s="2">
+      <c r="I442" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12936,10 +12948,10 @@
       <c r="I444">
         <f>((C444-C443)^2+(D444- D443)^2)^.5</f>
       </c>
-      <c r="J444" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K444" s="2" t="s">
+      <c r="J444" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K444" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L444" t="n">
@@ -12983,28 +12995,28 @@
       </c>
     </row>
     <row r="446">
-      <c r="A446" t="s" s="2">
+      <c r="A446" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B446" t="s" s="2">
+      <c r="B446" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C446" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D446" t="s" s="2">
+      <c r="C446" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D446" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E446" t="s" s="2">
+      <c r="E446" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F446" t="s" s="2">
+      <c r="F446" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G446" t="s" s="2">
+      <c r="G446" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H446" t="s" s="2">
+      <c r="H446" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13029,28 +13041,28 @@
       </c>
     </row>
     <row r="448">
-      <c r="B448" t="s" s="2">
+      <c r="B448" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C448" t="s" s="2">
+      <c r="C448" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D448" t="s" s="2">
+      <c r="D448" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E448" t="s" s="2">
+      <c r="E448" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F448" t="s" s="2">
+      <c r="F448" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G448" t="s" s="2">
+      <c r="G448" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H448" t="s" s="2">
+      <c r="H448" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I448" t="s" s="2">
+      <c r="I448" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13109,10 +13121,10 @@
       <c r="I450">
         <f>((C450-C449)^2+(D450- D449)^2)^.5</f>
       </c>
-      <c r="J450" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K450" s="2" t="s">
+      <c r="J450" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K450" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L450" t="n">
@@ -13156,28 +13168,28 @@
       </c>
     </row>
     <row r="452">
-      <c r="A452" t="s" s="2">
+      <c r="A452" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B452" t="s" s="2">
+      <c r="B452" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C452" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D452" t="s" s="2">
+      <c r="C452" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D452" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E452" t="s" s="2">
+      <c r="E452" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F452" t="s" s="2">
+      <c r="F452" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G452" t="s" s="2">
+      <c r="G452" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H452" t="s" s="2">
+      <c r="H452" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13202,28 +13214,28 @@
       </c>
     </row>
     <row r="454">
-      <c r="B454" t="s" s="2">
+      <c r="B454" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C454" t="s" s="2">
+      <c r="C454" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D454" t="s" s="2">
+      <c r="D454" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E454" t="s" s="2">
+      <c r="E454" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F454" t="s" s="2">
+      <c r="F454" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G454" t="s" s="2">
+      <c r="G454" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H454" t="s" s="2">
+      <c r="H454" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I454" t="s" s="2">
+      <c r="I454" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13282,10 +13294,10 @@
       <c r="I456">
         <f>((C456-C455)^2+(D456- D455)^2)^.5</f>
       </c>
-      <c r="J456" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K456" s="2" t="s">
+      <c r="J456" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K456" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L456" t="n">
@@ -13329,28 +13341,28 @@
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="s" s="2">
+      <c r="A458" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B458" t="s" s="2">
+      <c r="B458" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C458" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D458" t="s" s="2">
+      <c r="C458" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D458" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E458" t="s" s="2">
+      <c r="E458" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F458" t="s" s="2">
+      <c r="F458" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G458" t="s" s="2">
+      <c r="G458" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H458" t="s" s="2">
+      <c r="H458" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13375,28 +13387,28 @@
       </c>
     </row>
     <row r="460">
-      <c r="B460" t="s" s="2">
+      <c r="B460" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C460" t="s" s="2">
+      <c r="C460" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D460" t="s" s="2">
+      <c r="D460" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E460" t="s" s="2">
+      <c r="E460" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F460" t="s" s="2">
+      <c r="F460" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G460" t="s" s="2">
+      <c r="G460" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H460" t="s" s="2">
+      <c r="H460" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I460" t="s" s="2">
+      <c r="I460" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13455,10 +13467,10 @@
       <c r="I462">
         <f>((C462-C461)^2+(D462- D461)^2)^.5</f>
       </c>
-      <c r="J462" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K462" s="2" t="s">
+      <c r="J462" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K462" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L462" t="n">
@@ -13502,28 +13514,28 @@
       </c>
     </row>
     <row r="464">
-      <c r="A464" t="s" s="2">
+      <c r="A464" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B464" t="s" s="2">
+      <c r="B464" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C464" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D464" t="s" s="2">
+      <c r="C464" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D464" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E464" t="s" s="2">
+      <c r="E464" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F464" t="s" s="2">
+      <c r="F464" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G464" t="s" s="2">
+      <c r="G464" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H464" t="s" s="2">
+      <c r="H464" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13548,28 +13560,28 @@
       </c>
     </row>
     <row r="466">
-      <c r="B466" t="s" s="2">
+      <c r="B466" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C466" t="s" s="2">
+      <c r="C466" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D466" t="s" s="2">
+      <c r="D466" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E466" t="s" s="2">
+      <c r="E466" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F466" t="s" s="2">
+      <c r="F466" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G466" t="s" s="2">
+      <c r="G466" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H466" t="s" s="2">
+      <c r="H466" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I466" t="s" s="2">
+      <c r="I466" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13628,10 +13640,10 @@
       <c r="I468">
         <f>((C468-C467)^2+(D468- D467)^2)^.5</f>
       </c>
-      <c r="J468" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K468" s="2" t="s">
+      <c r="J468" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K468" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L468" t="n">
@@ -13675,28 +13687,28 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" t="s" s="2">
+      <c r="A470" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B470" t="s" s="2">
+      <c r="B470" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C470" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D470" t="s" s="2">
+      <c r="C470" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D470" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E470" t="s" s="2">
+      <c r="E470" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F470" t="s" s="2">
+      <c r="F470" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G470" t="s" s="2">
+      <c r="G470" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H470" t="s" s="2">
+      <c r="H470" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13721,28 +13733,28 @@
       </c>
     </row>
     <row r="472">
-      <c r="B472" t="s" s="2">
+      <c r="B472" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C472" t="s" s="2">
+      <c r="C472" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D472" t="s" s="2">
+      <c r="D472" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E472" t="s" s="2">
+      <c r="E472" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F472" t="s" s="2">
+      <c r="F472" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G472" t="s" s="2">
+      <c r="G472" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H472" t="s" s="2">
+      <c r="H472" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I472" t="s" s="2">
+      <c r="I472" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13801,10 +13813,10 @@
       <c r="I474">
         <f>((C474-C473)^2+(D474- D473)^2)^.5</f>
       </c>
-      <c r="J474" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K474" s="2" t="s">
+      <c r="J474" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K474" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L474" t="n">
@@ -13848,28 +13860,28 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" t="s" s="2">
+      <c r="A476" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B476" t="s" s="2">
+      <c r="B476" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C476" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D476" t="s" s="2">
+      <c r="C476" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D476" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E476" t="s" s="2">
+      <c r="E476" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F476" t="s" s="2">
+      <c r="F476" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G476" t="s" s="2">
+      <c r="G476" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H476" t="s" s="2">
+      <c r="H476" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13894,28 +13906,28 @@
       </c>
     </row>
     <row r="478">
-      <c r="B478" t="s" s="2">
+      <c r="B478" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C478" t="s" s="2">
+      <c r="C478" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D478" t="s" s="2">
+      <c r="D478" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E478" t="s" s="2">
+      <c r="E478" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F478" t="s" s="2">
+      <c r="F478" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G478" t="s" s="2">
+      <c r="G478" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H478" t="s" s="2">
+      <c r="H478" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I478" t="s" s="2">
+      <c r="I478" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13974,10 +13986,10 @@
       <c r="I480">
         <f>((C480-C479)^2+(D480- D479)^2)^.5</f>
       </c>
-      <c r="J480" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K480" s="2" t="s">
+      <c r="J480" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K480" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L480" t="n">
@@ -14021,28 +14033,28 @@
       </c>
     </row>
     <row r="482">
-      <c r="A482" t="s" s="2">
+      <c r="A482" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B482" t="s" s="2">
+      <c r="B482" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C482" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D482" t="s" s="2">
+      <c r="C482" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D482" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E482" t="s" s="2">
+      <c r="E482" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F482" t="s" s="2">
+      <c r="F482" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G482" t="s" s="2">
+      <c r="G482" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H482" t="s" s="2">
+      <c r="H482" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -14067,28 +14079,28 @@
       </c>
     </row>
     <row r="484">
-      <c r="B484" t="s" s="2">
+      <c r="B484" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C484" t="s" s="2">
+      <c r="C484" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D484" t="s" s="2">
+      <c r="D484" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E484" t="s" s="2">
+      <c r="E484" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F484" t="s" s="2">
+      <c r="F484" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G484" t="s" s="2">
+      <c r="G484" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H484" t="s" s="2">
+      <c r="H484" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I484" t="s" s="2">
+      <c r="I484" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -14147,10 +14159,10 @@
       <c r="I486">
         <f>((C486-C485)^2+(D486- D485)^2)^.5</f>
       </c>
-      <c r="J486" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K486" s="2" t="s">
+      <c r="J486" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K486" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L486" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c104_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c104_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5608" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16824" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="4">
+      <c r="C3" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -402,10 +450,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="4" t="s">
+      <c r="J9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -449,28 +497,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="4">
+      <c r="A11" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="4">
+      <c r="B11" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="4">
+      <c r="C11" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="4">
+      <c r="E11" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="4">
+      <c r="F11" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="4">
+      <c r="G11" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="4">
+      <c r="H11" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -495,28 +543,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="4">
+      <c r="B13" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="4">
+      <c r="C13" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="4">
+      <c r="D13" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="4">
+      <c r="E13" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="4">
+      <c r="F13" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="4">
+      <c r="G13" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="4">
+      <c r="H13" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="4">
+      <c r="I13" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -604,10 +652,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="4" t="s">
+      <c r="J16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -651,28 +699,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="4">
+      <c r="A18" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="4">
+      <c r="B18" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="4">
+      <c r="C18" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="4">
+      <c r="E18" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="4">
+      <c r="F18" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="4">
+      <c r="G18" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="4">
+      <c r="H18" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -697,28 +745,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="4">
+      <c r="B20" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="4">
+      <c r="C20" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="4">
+      <c r="D20" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="4">
+      <c r="E20" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="4">
+      <c r="F20" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="4">
+      <c r="G20" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="4">
+      <c r="H20" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="4">
+      <c r="I20" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -777,10 +825,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="4" t="s">
+      <c r="J22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -824,28 +872,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="4">
+      <c r="A24" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="4">
+      <c r="B24" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="4">
+      <c r="C24" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="4">
+      <c r="E24" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="4">
+      <c r="F24" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="4">
+      <c r="G24" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="4">
+      <c r="H24" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -870,28 +918,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="4">
+      <c r="B26" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="4">
+      <c r="C26" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="4">
+      <c r="D26" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="4">
+      <c r="E26" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="4">
+      <c r="F26" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="4">
+      <c r="G26" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="4">
+      <c r="H26" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="4">
+      <c r="I26" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -950,10 +998,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="4" t="s">
+      <c r="J28" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -997,28 +1045,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="4">
+      <c r="A30" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="4">
+      <c r="B30" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s" s="4">
+      <c r="C30" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="4">
+      <c r="E30" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="4">
+      <c r="F30" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="4">
+      <c r="G30" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="4">
+      <c r="H30" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1043,28 +1091,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="4">
+      <c r="B32" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="4">
+      <c r="C32" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="4">
+      <c r="D32" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="4">
+      <c r="E32" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="4">
+      <c r="F32" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="4">
+      <c r="G32" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="4">
+      <c r="H32" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="4">
+      <c r="I32" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1123,10 +1171,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="4" t="s">
+      <c r="J34" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1170,28 +1218,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="4">
+      <c r="A36" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="4">
+      <c r="B36" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s" s="4">
+      <c r="C36" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="4">
+      <c r="E36" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="4">
+      <c r="F36" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="4">
+      <c r="G36" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="4">
+      <c r="H36" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1216,28 +1264,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="4">
+      <c r="B38" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="4">
+      <c r="C38" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="4">
+      <c r="D38" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="4">
+      <c r="E38" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="4">
+      <c r="F38" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="4">
+      <c r="G38" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="4">
+      <c r="H38" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="4">
+      <c r="I38" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1296,10 +1344,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="4" t="s">
+      <c r="J40" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1343,28 +1391,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="4">
+      <c r="A42" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="4">
+      <c r="B42" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s" s="4">
+      <c r="C42" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="4">
+      <c r="E42" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="4">
+      <c r="F42" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="4">
+      <c r="G42" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="4">
+      <c r="H42" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1389,28 +1437,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="4">
+      <c r="B44" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="4">
+      <c r="C44" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="4">
+      <c r="D44" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="4">
+      <c r="E44" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="4">
+      <c r="F44" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="4">
+      <c r="G44" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="4">
+      <c r="H44" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="4">
+      <c r="I44" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1498,10 +1546,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="4" t="s">
+      <c r="J47" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1545,28 +1593,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="4">
+      <c r="A49" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="4">
+      <c r="B49" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s" s="4">
+      <c r="C49" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="4">
+      <c r="E49" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="4">
+      <c r="F49" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="4">
+      <c r="G49" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="4">
+      <c r="H49" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1591,28 +1639,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="4">
+      <c r="B51" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="4">
+      <c r="C51" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="4">
+      <c r="D51" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="4">
+      <c r="E51" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="4">
+      <c r="F51" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="4">
+      <c r="G51" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="4">
+      <c r="H51" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="4">
+      <c r="I51" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1700,10 +1748,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="4" t="s">
+      <c r="J54" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1747,28 +1795,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="4">
+      <c r="A56" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="4">
+      <c r="B56" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="4">
+      <c r="C56" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="4">
+      <c r="E56" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="4">
+      <c r="F56" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="4">
+      <c r="G56" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="4">
+      <c r="H56" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1793,28 +1841,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="4">
+      <c r="B58" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="4">
+      <c r="C58" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="4">
+      <c r="D58" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="4">
+      <c r="E58" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="4">
+      <c r="F58" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="4">
+      <c r="G58" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="4">
+      <c r="H58" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="4">
+      <c r="I58" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1931,10 +1979,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K62" s="4" t="s">
+      <c r="J62" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -1978,28 +2026,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="4">
+      <c r="A64" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="4">
+      <c r="B64" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s" s="4">
+      <c r="C64" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="4">
+      <c r="E64" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="4">
+      <c r="F64" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="4">
+      <c r="G64" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="4">
+      <c r="H64" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2024,28 +2072,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="4">
+      <c r="B66" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="4">
+      <c r="C66" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="4">
+      <c r="D66" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="4">
+      <c r="E66" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="4">
+      <c r="F66" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="4">
+      <c r="G66" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="4">
+      <c r="H66" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="4">
+      <c r="I66" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2133,10 +2181,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="4" t="s">
+      <c r="J69" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2180,28 +2228,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="4">
+      <c r="A71" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="4">
+      <c r="B71" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="4">
+      <c r="C71" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="4">
+      <c r="E71" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="4">
+      <c r="F71" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="4">
+      <c r="G71" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="4">
+      <c r="H71" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2226,28 +2274,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="4">
+      <c r="B73" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="4">
+      <c r="C73" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="4">
+      <c r="D73" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="4">
+      <c r="E73" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="4">
+      <c r="F73" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="4">
+      <c r="G73" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="4">
+      <c r="H73" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="4">
+      <c r="I73" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2393,10 +2441,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="4" t="s">
+      <c r="J78" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2440,28 +2488,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="4">
+      <c r="A80" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="4">
+      <c r="B80" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="4">
+      <c r="C80" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="4">
+      <c r="E80" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="4">
+      <c r="F80" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="4">
+      <c r="G80" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="4">
+      <c r="H80" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2486,28 +2534,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="4">
+      <c r="B82" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="4">
+      <c r="C82" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="4">
+      <c r="D82" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="4">
+      <c r="E82" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="4">
+      <c r="F82" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="4">
+      <c r="G82" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="4">
+      <c r="H82" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="4">
+      <c r="I82" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2595,10 +2643,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="4" t="s">
+      <c r="J85" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2642,28 +2690,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="4">
+      <c r="A87" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="4">
+      <c r="B87" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="4">
+      <c r="C87" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="4">
+      <c r="E87" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="4">
+      <c r="F87" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="4">
+      <c r="G87" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="4">
+      <c r="H87" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2688,28 +2736,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="4">
+      <c r="B89" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="4">
+      <c r="C89" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="4">
+      <c r="D89" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="4">
+      <c r="E89" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="4">
+      <c r="F89" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="4">
+      <c r="G89" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="4">
+      <c r="H89" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="4">
+      <c r="I89" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2797,10 +2845,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="4" t="s">
+      <c r="J92" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2844,28 +2892,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="4">
+      <c r="A94" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="4">
+      <c r="B94" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="4">
+      <c r="C94" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="4">
+      <c r="E94" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="4">
+      <c r="F94" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="4">
+      <c r="G94" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="4">
+      <c r="H94" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2890,28 +2938,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="4">
+      <c r="B96" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="4">
+      <c r="C96" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="4">
+      <c r="D96" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="4">
+      <c r="E96" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="4">
+      <c r="F96" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="4">
+      <c r="G96" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="4">
+      <c r="H96" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="4">
+      <c r="I96" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3057,10 +3105,10 @@
       <c r="I101">
         <f>((C101-C100)^2+(D101- D100)^2)^.5</f>
       </c>
-      <c r="J101" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K101" s="4" t="s">
+      <c r="J101" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K101" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L101" t="n">
@@ -3104,28 +3152,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="4">
+      <c r="A103" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B103" t="s" s="4">
+      <c r="B103" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C103" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D103" t="s" s="4">
+      <c r="C103" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E103" t="s" s="4">
+      <c r="E103" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F103" t="s" s="4">
+      <c r="F103" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G103" t="s" s="4">
+      <c r="G103" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H103" t="s" s="4">
+      <c r="H103" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3150,28 +3198,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s" s="4">
+      <c r="B105" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C105" t="s" s="4">
+      <c r="C105" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D105" t="s" s="4">
+      <c r="D105" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E105" t="s" s="4">
+      <c r="E105" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F105" t="s" s="4">
+      <c r="F105" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G105" t="s" s="4">
+      <c r="G105" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H105" t="s" s="4">
+      <c r="H105" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I105" t="s" s="4">
+      <c r="I105" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3317,10 +3365,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K110" s="4" t="s">
+      <c r="J110" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K110" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3364,28 +3412,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="4">
+      <c r="A112" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="4">
+      <c r="B112" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s" s="4">
+      <c r="C112" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="4">
+      <c r="E112" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="4">
+      <c r="F112" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="4">
+      <c r="G112" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="4">
+      <c r="H112" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3410,28 +3458,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="4">
+      <c r="B114" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="4">
+      <c r="C114" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="4">
+      <c r="D114" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="4">
+      <c r="E114" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="4">
+      <c r="F114" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="4">
+      <c r="G114" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="4">
+      <c r="H114" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="4">
+      <c r="I114" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3519,10 +3567,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="4" t="s">
+      <c r="J117" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3566,28 +3614,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="4">
+      <c r="A119" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="4">
+      <c r="B119" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="4">
+      <c r="C119" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="4">
+      <c r="E119" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="4">
+      <c r="F119" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="4">
+      <c r="G119" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="4">
+      <c r="H119" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3612,28 +3660,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="4">
+      <c r="B121" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="4">
+      <c r="C121" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="4">
+      <c r="D121" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="4">
+      <c r="E121" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="4">
+      <c r="F121" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="4">
+      <c r="G121" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="4">
+      <c r="H121" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="4">
+      <c r="I121" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3721,10 +3769,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="4" t="s">
+      <c r="J124" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3768,28 +3816,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="4">
+      <c r="A126" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="4">
+      <c r="B126" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="4">
+      <c r="C126" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="4">
+      <c r="E126" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="4">
+      <c r="F126" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="4">
+      <c r="G126" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="4">
+      <c r="H126" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3814,28 +3862,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="4">
+      <c r="B128" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="4">
+      <c r="C128" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="4">
+      <c r="D128" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="4">
+      <c r="E128" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="4">
+      <c r="F128" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="4">
+      <c r="G128" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="4">
+      <c r="H128" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="4">
+      <c r="I128" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3894,10 +3942,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="4" t="s">
+      <c r="J130" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3941,28 +3989,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="4">
+      <c r="A132" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="4">
+      <c r="B132" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="4">
+      <c r="C132" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="4">
+      <c r="E132" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="4">
+      <c r="F132" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="4">
+      <c r="G132" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="4">
+      <c r="H132" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3987,28 +4035,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="4">
+      <c r="B134" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="4">
+      <c r="C134" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="4">
+      <c r="D134" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="4">
+      <c r="E134" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="4">
+      <c r="F134" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="4">
+      <c r="G134" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="4">
+      <c r="H134" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="4">
+      <c r="I134" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4067,10 +4115,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="4" t="s">
+      <c r="J136" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4114,28 +4162,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="4">
+      <c r="A138" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="4">
+      <c r="B138" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="4">
+      <c r="C138" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="4">
+      <c r="E138" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="4">
+      <c r="F138" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="4">
+      <c r="G138" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="4">
+      <c r="H138" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4160,28 +4208,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="4">
+      <c r="B140" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="4">
+      <c r="C140" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="4">
+      <c r="D140" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="4">
+      <c r="E140" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="4">
+      <c r="F140" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="4">
+      <c r="G140" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="4">
+      <c r="H140" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="4">
+      <c r="I140" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4240,10 +4288,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K142" s="4" t="s">
+      <c r="J142" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K142" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4287,28 +4335,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="4">
+      <c r="A144" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="4">
+      <c r="B144" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s" s="4">
+      <c r="C144" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="4">
+      <c r="E144" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="4">
+      <c r="F144" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="4">
+      <c r="G144" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="4">
+      <c r="H144" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4333,28 +4381,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="4">
+      <c r="B146" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="4">
+      <c r="C146" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="4">
+      <c r="D146" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="4">
+      <c r="E146" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="4">
+      <c r="F146" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="4">
+      <c r="G146" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="4">
+      <c r="H146" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="4">
+      <c r="I146" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4413,10 +4461,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K148" s="4" t="s">
+      <c r="J148" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K148" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4460,28 +4508,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="4">
+      <c r="A150" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="4">
+      <c r="B150" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s" s="4">
+      <c r="C150" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="4">
+      <c r="E150" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="4">
+      <c r="F150" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="4">
+      <c r="G150" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="4">
+      <c r="H150" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4506,28 +4554,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="4">
+      <c r="B152" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="4">
+      <c r="C152" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="4">
+      <c r="D152" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="4">
+      <c r="E152" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="4">
+      <c r="F152" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="4">
+      <c r="G152" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="4">
+      <c r="H152" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="4">
+      <c r="I152" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4586,10 +4634,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="4" t="s">
+      <c r="J154" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4633,28 +4681,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="4">
+      <c r="A156" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="4">
+      <c r="B156" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s" s="4">
+      <c r="C156" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="4">
+      <c r="E156" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="4">
+      <c r="F156" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="4">
+      <c r="G156" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="4">
+      <c r="H156" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4679,28 +4727,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="4">
+      <c r="B158" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="4">
+      <c r="C158" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="4">
+      <c r="D158" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="4">
+      <c r="E158" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="4">
+      <c r="F158" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="4">
+      <c r="G158" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="4">
+      <c r="H158" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="4">
+      <c r="I158" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4759,10 +4807,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K160" s="4" t="s">
+      <c r="J160" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K160" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4806,28 +4854,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="4">
+      <c r="A162" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="4">
+      <c r="B162" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s" s="4">
+      <c r="C162" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="4">
+      <c r="E162" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="4">
+      <c r="F162" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="4">
+      <c r="G162" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="4">
+      <c r="H162" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4852,28 +4900,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="4">
+      <c r="B164" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="4">
+      <c r="C164" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="4">
+      <c r="D164" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="4">
+      <c r="E164" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="4">
+      <c r="F164" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="4">
+      <c r="G164" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="4">
+      <c r="H164" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="4">
+      <c r="I164" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4932,10 +4980,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K166" s="4" t="s">
+      <c r="J166" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4979,28 +5027,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="4">
+      <c r="A168" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="4">
+      <c r="B168" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s" s="4">
+      <c r="C168" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="4">
+      <c r="E168" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="4">
+      <c r="F168" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="4">
+      <c r="G168" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="4">
+      <c r="H168" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5025,28 +5073,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="4">
+      <c r="B170" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="4">
+      <c r="C170" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="4">
+      <c r="D170" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="4">
+      <c r="E170" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="4">
+      <c r="F170" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="4">
+      <c r="G170" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="4">
+      <c r="H170" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="4">
+      <c r="I170" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5105,10 +5153,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K172" s="4" t="s">
+      <c r="J172" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5152,28 +5200,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="4">
+      <c r="A174" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="4">
+      <c r="B174" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s" s="4">
+      <c r="C174" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="4">
+      <c r="E174" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="4">
+      <c r="F174" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="4">
+      <c r="G174" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="4">
+      <c r="H174" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5198,28 +5246,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="4">
+      <c r="B176" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="4">
+      <c r="C176" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="4">
+      <c r="D176" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="4">
+      <c r="E176" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="4">
+      <c r="F176" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="4">
+      <c r="G176" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="4">
+      <c r="H176" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="4">
+      <c r="I176" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5278,10 +5326,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="4" t="s">
+      <c r="J178" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5325,28 +5373,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="4">
+      <c r="A180" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="4">
+      <c r="B180" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="4">
+      <c r="C180" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="4">
+      <c r="E180" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="4">
+      <c r="F180" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="4">
+      <c r="G180" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="4">
+      <c r="H180" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5371,28 +5419,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="4">
+      <c r="B182" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="4">
+      <c r="C182" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="4">
+      <c r="D182" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="4">
+      <c r="E182" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="4">
+      <c r="F182" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="4">
+      <c r="G182" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="4">
+      <c r="H182" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="4">
+      <c r="I182" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5451,10 +5499,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="4" t="s">
+      <c r="J184" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5498,28 +5546,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="4">
+      <c r="A186" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="4">
+      <c r="B186" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="4">
+      <c r="C186" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="4">
+      <c r="E186" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="4">
+      <c r="F186" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="4">
+      <c r="G186" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="4">
+      <c r="H186" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5544,28 +5592,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="4">
+      <c r="B188" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="4">
+      <c r="C188" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="4">
+      <c r="D188" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="4">
+      <c r="E188" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="4">
+      <c r="F188" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="4">
+      <c r="G188" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="4">
+      <c r="H188" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="4">
+      <c r="I188" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5624,10 +5672,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K190" s="4" t="s">
+      <c r="J190" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K190" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5671,28 +5719,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="4">
+      <c r="A192" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="4">
+      <c r="B192" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s" s="4">
+      <c r="C192" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="4">
+      <c r="E192" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="4">
+      <c r="F192" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="4">
+      <c r="G192" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="4">
+      <c r="H192" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5717,28 +5765,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="4">
+      <c r="B194" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="4">
+      <c r="C194" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="4">
+      <c r="D194" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="4">
+      <c r="E194" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="4">
+      <c r="F194" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="4">
+      <c r="G194" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="4">
+      <c r="H194" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="4">
+      <c r="I194" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5797,10 +5845,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K196" s="4" t="s">
+      <c r="J196" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K196" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
@@ -5844,28 +5892,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s" s="4">
+      <c r="A198" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B198" t="s" s="4">
+      <c r="B198" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C198" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D198" t="s" s="4">
+      <c r="C198" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E198" t="s" s="4">
+      <c r="E198" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F198" t="s" s="4">
+      <c r="F198" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G198" t="s" s="4">
+      <c r="G198" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H198" t="s" s="4">
+      <c r="H198" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5890,28 +5938,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="s" s="4">
+      <c r="B200" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C200" t="s" s="4">
+      <c r="C200" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D200" t="s" s="4">
+      <c r="D200" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E200" t="s" s="4">
+      <c r="E200" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F200" t="s" s="4">
+      <c r="F200" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G200" t="s" s="4">
+      <c r="G200" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H200" t="s" s="4">
+      <c r="H200" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I200" t="s" s="4">
+      <c r="I200" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5970,10 +6018,10 @@
       <c r="I202">
         <f>((C202-C201)^2+(D202- D201)^2)^.5</f>
       </c>
-      <c r="J202" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K202" s="4" t="s">
+      <c r="J202" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L202" t="n">
@@ -6017,28 +6065,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s" s="4">
+      <c r="A204" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B204" t="s" s="4">
+      <c r="B204" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C204" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D204" t="s" s="4">
+      <c r="C204" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E204" t="s" s="4">
+      <c r="E204" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F204" t="s" s="4">
+      <c r="F204" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G204" t="s" s="4">
+      <c r="G204" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H204" t="s" s="4">
+      <c r="H204" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6063,28 +6111,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="s" s="4">
+      <c r="B206" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C206" t="s" s="4">
+      <c r="C206" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D206" t="s" s="4">
+      <c r="D206" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E206" t="s" s="4">
+      <c r="E206" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F206" t="s" s="4">
+      <c r="F206" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G206" t="s" s="4">
+      <c r="G206" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H206" t="s" s="4">
+      <c r="H206" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I206" t="s" s="4">
+      <c r="I206" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6143,10 +6191,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="4" t="s">
+      <c r="J208" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6190,28 +6238,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="4">
+      <c r="A210" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="4">
+      <c r="B210" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="4">
+      <c r="C210" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="4">
+      <c r="E210" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="4">
+      <c r="F210" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="4">
+      <c r="G210" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="4">
+      <c r="H210" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6236,28 +6284,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="4">
+      <c r="B212" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="4">
+      <c r="C212" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="4">
+      <c r="D212" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="4">
+      <c r="E212" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="4">
+      <c r="F212" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="4">
+      <c r="G212" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="4">
+      <c r="H212" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="4">
+      <c r="I212" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6316,10 +6364,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="4" t="s">
+      <c r="J214" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6363,28 +6411,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="4">
+      <c r="A216" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="4">
+      <c r="B216" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="4">
+      <c r="C216" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="4">
+      <c r="E216" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="4">
+      <c r="F216" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="4">
+      <c r="G216" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="4">
+      <c r="H216" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6409,28 +6457,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="4">
+      <c r="B218" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="4">
+      <c r="C218" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="4">
+      <c r="D218" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="4">
+      <c r="E218" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="4">
+      <c r="F218" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="4">
+      <c r="G218" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="4">
+      <c r="H218" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="4">
+      <c r="I218" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6489,10 +6537,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="4" t="s">
+      <c r="J220" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6536,28 +6584,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="4">
+      <c r="A222" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="4">
+      <c r="B222" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="4">
+      <c r="C222" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="4">
+      <c r="E222" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="4">
+      <c r="F222" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="4">
+      <c r="G222" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="4">
+      <c r="H222" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6582,28 +6630,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="4">
+      <c r="B224" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="4">
+      <c r="C224" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="4">
+      <c r="D224" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="4">
+      <c r="E224" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="4">
+      <c r="F224" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="4">
+      <c r="G224" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="4">
+      <c r="H224" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="4">
+      <c r="I224" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6662,10 +6710,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="4" t="s">
+      <c r="J226" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
@@ -6709,28 +6757,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="4">
+      <c r="A228" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B228" t="s" s="4">
+      <c r="B228" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C228" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D228" t="s" s="4">
+      <c r="C228" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E228" t="s" s="4">
+      <c r="E228" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F228" t="s" s="4">
+      <c r="F228" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G228" t="s" s="4">
+      <c r="G228" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H228" t="s" s="4">
+      <c r="H228" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6755,28 +6803,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s" s="4">
+      <c r="B230" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C230" t="s" s="4">
+      <c r="C230" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D230" t="s" s="4">
+      <c r="D230" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E230" t="s" s="4">
+      <c r="E230" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F230" t="s" s="4">
+      <c r="F230" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G230" t="s" s="4">
+      <c r="G230" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H230" t="s" s="4">
+      <c r="H230" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I230" t="s" s="4">
+      <c r="I230" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6835,10 +6883,10 @@
       <c r="I232">
         <f>((C232-C231)^2+(D232- D231)^2)^.5</f>
       </c>
-      <c r="J232" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K232" s="4" t="s">
+      <c r="J232" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L232" t="n">
@@ -6882,28 +6930,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="4">
+      <c r="A234" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B234" t="s" s="4">
+      <c r="B234" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C234" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D234" t="s" s="4">
+      <c r="C234" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E234" t="s" s="4">
+      <c r="E234" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F234" t="s" s="4">
+      <c r="F234" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G234" t="s" s="4">
+      <c r="G234" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H234" t="s" s="4">
+      <c r="H234" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6928,28 +6976,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="B236" t="s" s="4">
+      <c r="B236" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C236" t="s" s="4">
+      <c r="C236" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D236" t="s" s="4">
+      <c r="D236" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E236" t="s" s="4">
+      <c r="E236" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F236" t="s" s="4">
+      <c r="F236" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G236" t="s" s="4">
+      <c r="G236" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H236" t="s" s="4">
+      <c r="H236" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I236" t="s" s="4">
+      <c r="I236" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7008,10 +7056,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="4" t="s">
+      <c r="J238" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7055,28 +7103,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="4">
+      <c r="A240" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="4">
+      <c r="B240" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="4">
+      <c r="C240" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="4">
+      <c r="E240" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="4">
+      <c r="F240" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="4">
+      <c r="G240" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="4">
+      <c r="H240" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7101,28 +7149,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="4">
+      <c r="B242" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="4">
+      <c r="C242" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="4">
+      <c r="D242" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="4">
+      <c r="E242" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="4">
+      <c r="F242" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="4">
+      <c r="G242" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="4">
+      <c r="H242" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="4">
+      <c r="I242" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7181,10 +7229,10 @@
       <c r="I244">
         <f>((C244-C243)^2+(D244- D243)^2)^.5</f>
       </c>
-      <c r="J244" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K244" s="4" t="s">
+      <c r="J244" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K244" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L244" t="n">
@@ -7228,28 +7276,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="s" s="4">
+      <c r="A246" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B246" t="s" s="4">
+      <c r="B246" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C246" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D246" t="s" s="4">
+      <c r="C246" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E246" t="s" s="4">
+      <c r="E246" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F246" t="s" s="4">
+      <c r="F246" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G246" t="s" s="4">
+      <c r="G246" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H246" t="s" s="4">
+      <c r="H246" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7274,28 +7322,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="B248" t="s" s="4">
+      <c r="B248" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C248" t="s" s="4">
+      <c r="C248" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D248" t="s" s="4">
+      <c r="D248" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E248" t="s" s="4">
+      <c r="E248" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F248" t="s" s="4">
+      <c r="F248" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G248" t="s" s="4">
+      <c r="G248" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H248" t="s" s="4">
+      <c r="H248" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I248" t="s" s="4">
+      <c r="I248" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7354,10 +7402,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="4" t="s">
+      <c r="J250" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7401,28 +7449,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="4">
+      <c r="A252" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="4">
+      <c r="B252" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="4">
+      <c r="C252" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="4">
+      <c r="E252" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="4">
+      <c r="F252" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="4">
+      <c r="G252" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="4">
+      <c r="H252" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7447,28 +7495,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="4">
+      <c r="B254" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="4">
+      <c r="C254" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="4">
+      <c r="D254" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="4">
+      <c r="E254" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="4">
+      <c r="F254" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="4">
+      <c r="G254" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="4">
+      <c r="H254" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="4">
+      <c r="I254" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7527,10 +7575,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="4" t="s">
+      <c r="J256" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">
@@ -7574,28 +7622,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="s" s="4">
+      <c r="A258" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B258" t="s" s="4">
+      <c r="B258" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C258" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D258" t="s" s="4">
+      <c r="C258" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D258" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E258" t="s" s="4">
+      <c r="E258" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F258" t="s" s="4">
+      <c r="F258" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G258" t="s" s="4">
+      <c r="G258" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H258" t="s" s="4">
+      <c r="H258" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7620,28 +7668,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="B260" t="s" s="4">
+      <c r="B260" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C260" t="s" s="4">
+      <c r="C260" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D260" t="s" s="4">
+      <c r="D260" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E260" t="s" s="4">
+      <c r="E260" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F260" t="s" s="4">
+      <c r="F260" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G260" t="s" s="4">
+      <c r="G260" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H260" t="s" s="4">
+      <c r="H260" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I260" t="s" s="4">
+      <c r="I260" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7700,10 +7748,10 @@
       <c r="I262">
         <f>((C262-C261)^2+(D262- D261)^2)^.5</f>
       </c>
-      <c r="J262" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K262" s="4" t="s">
+      <c r="J262" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K262" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L262" t="n">
@@ -7747,28 +7795,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="s" s="4">
+      <c r="A264" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B264" t="s" s="4">
+      <c r="B264" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C264" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D264" t="s" s="4">
+      <c r="C264" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D264" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E264" t="s" s="4">
+      <c r="E264" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F264" t="s" s="4">
+      <c r="F264" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G264" t="s" s="4">
+      <c r="G264" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H264" t="s" s="4">
+      <c r="H264" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7793,28 +7841,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="B266" t="s" s="4">
+      <c r="B266" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C266" t="s" s="4">
+      <c r="C266" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D266" t="s" s="4">
+      <c r="D266" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E266" t="s" s="4">
+      <c r="E266" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F266" t="s" s="4">
+      <c r="F266" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G266" t="s" s="4">
+      <c r="G266" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H266" t="s" s="4">
+      <c r="H266" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I266" t="s" s="4">
+      <c r="I266" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7873,10 +7921,10 @@
       <c r="I268">
         <f>((C268-C267)^2+(D268- D267)^2)^.5</f>
       </c>
-      <c r="J268" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K268" s="4" t="s">
+      <c r="J268" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K268" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L268" t="n">
@@ -7920,28 +7968,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s" s="4">
+      <c r="A270" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B270" t="s" s="4">
+      <c r="B270" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C270" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D270" t="s" s="4">
+      <c r="C270" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D270" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E270" t="s" s="4">
+      <c r="E270" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F270" t="s" s="4">
+      <c r="F270" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G270" t="s" s="4">
+      <c r="G270" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H270" t="s" s="4">
+      <c r="H270" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7966,28 +8014,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="B272" t="s" s="4">
+      <c r="B272" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C272" t="s" s="4">
+      <c r="C272" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D272" t="s" s="4">
+      <c r="D272" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E272" t="s" s="4">
+      <c r="E272" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F272" t="s" s="4">
+      <c r="F272" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G272" t="s" s="4">
+      <c r="G272" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H272" t="s" s="4">
+      <c r="H272" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I272" t="s" s="4">
+      <c r="I272" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8046,10 +8094,10 @@
       <c r="I274">
         <f>((C274-C273)^2+(D274- D273)^2)^.5</f>
       </c>
-      <c r="J274" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K274" s="4" t="s">
+      <c r="J274" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K274" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L274" t="n">
@@ -8093,28 +8141,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="s" s="4">
+      <c r="A276" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B276" t="s" s="4">
+      <c r="B276" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C276" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D276" t="s" s="4">
+      <c r="C276" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D276" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E276" t="s" s="4">
+      <c r="E276" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F276" t="s" s="4">
+      <c r="F276" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G276" t="s" s="4">
+      <c r="G276" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H276" t="s" s="4">
+      <c r="H276" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8139,28 +8187,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="B278" t="s" s="4">
+      <c r="B278" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C278" t="s" s="4">
+      <c r="C278" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D278" t="s" s="4">
+      <c r="D278" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E278" t="s" s="4">
+      <c r="E278" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F278" t="s" s="4">
+      <c r="F278" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G278" t="s" s="4">
+      <c r="G278" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H278" t="s" s="4">
+      <c r="H278" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I278" t="s" s="4">
+      <c r="I278" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8219,10 +8267,10 @@
       <c r="I280">
         <f>((C280-C279)^2+(D280- D279)^2)^.5</f>
       </c>
-      <c r="J280" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K280" s="4" t="s">
+      <c r="J280" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K280" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L280" t="n">
@@ -8266,28 +8314,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="s" s="4">
+      <c r="A282" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B282" t="s" s="4">
+      <c r="B282" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C282" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D282" t="s" s="4">
+      <c r="C282" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D282" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E282" t="s" s="4">
+      <c r="E282" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F282" t="s" s="4">
+      <c r="F282" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G282" t="s" s="4">
+      <c r="G282" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H282" t="s" s="4">
+      <c r="H282" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8312,28 +8360,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="B284" t="s" s="4">
+      <c r="B284" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C284" t="s" s="4">
+      <c r="C284" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D284" t="s" s="4">
+      <c r="D284" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E284" t="s" s="4">
+      <c r="E284" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F284" t="s" s="4">
+      <c r="F284" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G284" t="s" s="4">
+      <c r="G284" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H284" t="s" s="4">
+      <c r="H284" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I284" t="s" s="4">
+      <c r="I284" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8392,10 +8440,10 @@
       <c r="I286">
         <f>((C286-C285)^2+(D286- D285)^2)^.5</f>
       </c>
-      <c r="J286" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K286" s="4" t="s">
+      <c r="J286" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K286" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L286" t="n">
@@ -8439,28 +8487,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="s" s="4">
+      <c r="A288" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B288" t="s" s="4">
+      <c r="B288" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C288" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D288" t="s" s="4">
+      <c r="C288" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D288" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E288" t="s" s="4">
+      <c r="E288" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F288" t="s" s="4">
+      <c r="F288" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G288" t="s" s="4">
+      <c r="G288" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H288" t="s" s="4">
+      <c r="H288" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8485,28 +8533,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="B290" t="s" s="4">
+      <c r="B290" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C290" t="s" s="4">
+      <c r="C290" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D290" t="s" s="4">
+      <c r="D290" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E290" t="s" s="4">
+      <c r="E290" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F290" t="s" s="4">
+      <c r="F290" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G290" t="s" s="4">
+      <c r="G290" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H290" t="s" s="4">
+      <c r="H290" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I290" t="s" s="4">
+      <c r="I290" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8565,10 +8613,10 @@
       <c r="I292">
         <f>((C292-C291)^2+(D292- D291)^2)^.5</f>
       </c>
-      <c r="J292" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K292" s="4" t="s">
+      <c r="J292" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K292" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L292" t="n">
@@ -8612,28 +8660,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="s" s="4">
+      <c r="A294" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B294" t="s" s="4">
+      <c r="B294" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C294" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D294" t="s" s="4">
+      <c r="C294" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D294" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E294" t="s" s="4">
+      <c r="E294" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F294" t="s" s="4">
+      <c r="F294" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G294" t="s" s="4">
+      <c r="G294" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H294" t="s" s="4">
+      <c r="H294" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8658,28 +8706,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="B296" t="s" s="4">
+      <c r="B296" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C296" t="s" s="4">
+      <c r="C296" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D296" t="s" s="4">
+      <c r="D296" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E296" t="s" s="4">
+      <c r="E296" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F296" t="s" s="4">
+      <c r="F296" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G296" t="s" s="4">
+      <c r="G296" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H296" t="s" s="4">
+      <c r="H296" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I296" t="s" s="4">
+      <c r="I296" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8738,10 +8786,10 @@
       <c r="I298">
         <f>((C298-C297)^2+(D298- D297)^2)^.5</f>
       </c>
-      <c r="J298" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K298" s="4" t="s">
+      <c r="J298" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K298" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L298" t="n">
@@ -8785,28 +8833,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="s" s="4">
+      <c r="A300" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B300" t="s" s="4">
+      <c r="B300" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C300" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D300" t="s" s="4">
+      <c r="C300" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D300" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E300" t="s" s="4">
+      <c r="E300" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F300" t="s" s="4">
+      <c r="F300" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G300" t="s" s="4">
+      <c r="G300" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H300" t="s" s="4">
+      <c r="H300" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8831,28 +8879,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="B302" t="s" s="4">
+      <c r="B302" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C302" t="s" s="4">
+      <c r="C302" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D302" t="s" s="4">
+      <c r="D302" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E302" t="s" s="4">
+      <c r="E302" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F302" t="s" s="4">
+      <c r="F302" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G302" t="s" s="4">
+      <c r="G302" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H302" t="s" s="4">
+      <c r="H302" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I302" t="s" s="4">
+      <c r="I302" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8911,10 +8959,10 @@
       <c r="I304">
         <f>((C304-C303)^2+(D304- D303)^2)^.5</f>
       </c>
-      <c r="J304" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K304" s="4" t="s">
+      <c r="J304" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K304" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L304" t="n">
@@ -8958,28 +9006,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="s" s="4">
+      <c r="A306" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B306" t="s" s="4">
+      <c r="B306" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C306" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D306" t="s" s="4">
+      <c r="C306" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D306" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E306" t="s" s="4">
+      <c r="E306" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F306" t="s" s="4">
+      <c r="F306" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G306" t="s" s="4">
+      <c r="G306" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H306" t="s" s="4">
+      <c r="H306" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9004,28 +9052,28 @@
       </c>
     </row>
     <row r="308">
-      <c r="B308" t="s" s="4">
+      <c r="B308" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C308" t="s" s="4">
+      <c r="C308" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D308" t="s" s="4">
+      <c r="D308" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E308" t="s" s="4">
+      <c r="E308" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F308" t="s" s="4">
+      <c r="F308" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G308" t="s" s="4">
+      <c r="G308" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H308" t="s" s="4">
+      <c r="H308" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I308" t="s" s="4">
+      <c r="I308" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9084,10 +9132,10 @@
       <c r="I310">
         <f>((C310-C309)^2+(D310- D309)^2)^.5</f>
       </c>
-      <c r="J310" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K310" s="4" t="s">
+      <c r="J310" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K310" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L310" t="n">
@@ -9131,28 +9179,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="s" s="4">
+      <c r="A312" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B312" t="s" s="4">
+      <c r="B312" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C312" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D312" t="s" s="4">
+      <c r="C312" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D312" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E312" t="s" s="4">
+      <c r="E312" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F312" t="s" s="4">
+      <c r="F312" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G312" t="s" s="4">
+      <c r="G312" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H312" t="s" s="4">
+      <c r="H312" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9177,28 +9225,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="B314" t="s" s="4">
+      <c r="B314" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C314" t="s" s="4">
+      <c r="C314" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D314" t="s" s="4">
+      <c r="D314" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E314" t="s" s="4">
+      <c r="E314" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F314" t="s" s="4">
+      <c r="F314" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G314" t="s" s="4">
+      <c r="G314" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H314" t="s" s="4">
+      <c r="H314" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I314" t="s" s="4">
+      <c r="I314" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9257,10 +9305,10 @@
       <c r="I316">
         <f>((C316-C315)^2+(D316- D315)^2)^.5</f>
       </c>
-      <c r="J316" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K316" s="4" t="s">
+      <c r="J316" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K316" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L316" t="n">
@@ -9304,28 +9352,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="s" s="4">
+      <c r="A318" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B318" t="s" s="4">
+      <c r="B318" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C318" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D318" t="s" s="4">
+      <c r="C318" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D318" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E318" t="s" s="4">
+      <c r="E318" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F318" t="s" s="4">
+      <c r="F318" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G318" t="s" s="4">
+      <c r="G318" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H318" t="s" s="4">
+      <c r="H318" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9350,28 +9398,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="B320" t="s" s="4">
+      <c r="B320" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C320" t="s" s="4">
+      <c r="C320" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D320" t="s" s="4">
+      <c r="D320" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E320" t="s" s="4">
+      <c r="E320" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F320" t="s" s="4">
+      <c r="F320" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G320" t="s" s="4">
+      <c r="G320" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H320" t="s" s="4">
+      <c r="H320" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I320" t="s" s="4">
+      <c r="I320" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9430,10 +9478,10 @@
       <c r="I322">
         <f>((C322-C321)^2+(D322- D321)^2)^.5</f>
       </c>
-      <c r="J322" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K322" s="4" t="s">
+      <c r="J322" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K322" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L322" t="n">
@@ -9477,28 +9525,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="s" s="4">
+      <c r="A324" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B324" t="s" s="4">
+      <c r="B324" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C324" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D324" t="s" s="4">
+      <c r="C324" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D324" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E324" t="s" s="4">
+      <c r="E324" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F324" t="s" s="4">
+      <c r="F324" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G324" t="s" s="4">
+      <c r="G324" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H324" t="s" s="4">
+      <c r="H324" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9523,28 +9571,28 @@
       </c>
     </row>
     <row r="326">
-      <c r="B326" t="s" s="4">
+      <c r="B326" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C326" t="s" s="4">
+      <c r="C326" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D326" t="s" s="4">
+      <c r="D326" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E326" t="s" s="4">
+      <c r="E326" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F326" t="s" s="4">
+      <c r="F326" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G326" t="s" s="4">
+      <c r="G326" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H326" t="s" s="4">
+      <c r="H326" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I326" t="s" s="4">
+      <c r="I326" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9603,10 +9651,10 @@
       <c r="I328">
         <f>((C328-C327)^2+(D328- D327)^2)^.5</f>
       </c>
-      <c r="J328" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K328" s="4" t="s">
+      <c r="J328" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K328" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L328" t="n">
@@ -9650,28 +9698,28 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="s" s="4">
+      <c r="A330" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B330" t="s" s="4">
+      <c r="B330" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C330" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D330" t="s" s="4">
+      <c r="C330" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D330" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E330" t="s" s="4">
+      <c r="E330" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F330" t="s" s="4">
+      <c r="F330" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G330" t="s" s="4">
+      <c r="G330" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H330" t="s" s="4">
+      <c r="H330" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9696,28 +9744,28 @@
       </c>
     </row>
     <row r="332">
-      <c r="B332" t="s" s="4">
+      <c r="B332" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C332" t="s" s="4">
+      <c r="C332" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D332" t="s" s="4">
+      <c r="D332" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E332" t="s" s="4">
+      <c r="E332" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F332" t="s" s="4">
+      <c r="F332" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G332" t="s" s="4">
+      <c r="G332" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H332" t="s" s="4">
+      <c r="H332" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I332" t="s" s="4">
+      <c r="I332" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9776,10 +9824,10 @@
       <c r="I334">
         <f>((C334-C333)^2+(D334- D333)^2)^.5</f>
       </c>
-      <c r="J334" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K334" s="4" t="s">
+      <c r="J334" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K334" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L334" t="n">
@@ -9823,28 +9871,28 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="s" s="4">
+      <c r="A336" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B336" t="s" s="4">
+      <c r="B336" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C336" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D336" t="s" s="4">
+      <c r="C336" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D336" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E336" t="s" s="4">
+      <c r="E336" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F336" t="s" s="4">
+      <c r="F336" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G336" t="s" s="4">
+      <c r="G336" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H336" t="s" s="4">
+      <c r="H336" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9869,28 +9917,28 @@
       </c>
     </row>
     <row r="338">
-      <c r="B338" t="s" s="4">
+      <c r="B338" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C338" t="s" s="4">
+      <c r="C338" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D338" t="s" s="4">
+      <c r="D338" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E338" t="s" s="4">
+      <c r="E338" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F338" t="s" s="4">
+      <c r="F338" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G338" t="s" s="4">
+      <c r="G338" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H338" t="s" s="4">
+      <c r="H338" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I338" t="s" s="4">
+      <c r="I338" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9949,10 +9997,10 @@
       <c r="I340">
         <f>((C340-C339)^2+(D340- D339)^2)^.5</f>
       </c>
-      <c r="J340" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K340" s="4" t="s">
+      <c r="J340" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K340" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L340" t="n">
@@ -9996,28 +10044,28 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="s" s="4">
+      <c r="A342" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B342" t="s" s="4">
+      <c r="B342" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C342" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D342" t="s" s="4">
+      <c r="C342" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D342" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E342" t="s" s="4">
+      <c r="E342" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F342" t="s" s="4">
+      <c r="F342" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G342" t="s" s="4">
+      <c r="G342" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H342" t="s" s="4">
+      <c r="H342" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10042,28 +10090,28 @@
       </c>
     </row>
     <row r="344">
-      <c r="B344" t="s" s="4">
+      <c r="B344" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C344" t="s" s="4">
+      <c r="C344" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D344" t="s" s="4">
+      <c r="D344" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E344" t="s" s="4">
+      <c r="E344" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F344" t="s" s="4">
+      <c r="F344" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G344" t="s" s="4">
+      <c r="G344" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H344" t="s" s="4">
+      <c r="H344" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I344" t="s" s="4">
+      <c r="I344" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10151,10 +10199,10 @@
       <c r="I347">
         <f>((C347-C346)^2+(D347- D346)^2)^.5</f>
       </c>
-      <c r="J347" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K347" s="4" t="s">
+      <c r="J347" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K347" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L347" t="n">
@@ -10198,28 +10246,28 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="s" s="4">
+      <c r="A349" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B349" t="s" s="4">
+      <c r="B349" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C349" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D349" t="s" s="4">
+      <c r="C349" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D349" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E349" t="s" s="4">
+      <c r="E349" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F349" t="s" s="4">
+      <c r="F349" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G349" t="s" s="4">
+      <c r="G349" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H349" t="s" s="4">
+      <c r="H349" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10244,28 +10292,28 @@
       </c>
     </row>
     <row r="351">
-      <c r="B351" t="s" s="4">
+      <c r="B351" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C351" t="s" s="4">
+      <c r="C351" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D351" t="s" s="4">
+      <c r="D351" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E351" t="s" s="4">
+      <c r="E351" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F351" t="s" s="4">
+      <c r="F351" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G351" t="s" s="4">
+      <c r="G351" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H351" t="s" s="4">
+      <c r="H351" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I351" t="s" s="4">
+      <c r="I351" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10324,10 +10372,10 @@
       <c r="I353">
         <f>((C353-C352)^2+(D353- D352)^2)^.5</f>
       </c>
-      <c r="J353" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K353" s="4" t="s">
+      <c r="J353" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K353" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L353" t="n">
@@ -10371,28 +10419,28 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="s" s="4">
+      <c r="A355" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B355" t="s" s="4">
+      <c r="B355" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C355" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D355" t="s" s="4">
+      <c r="C355" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D355" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E355" t="s" s="4">
+      <c r="E355" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F355" t="s" s="4">
+      <c r="F355" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G355" t="s" s="4">
+      <c r="G355" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H355" t="s" s="4">
+      <c r="H355" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10417,28 +10465,28 @@
       </c>
     </row>
     <row r="357">
-      <c r="B357" t="s" s="4">
+      <c r="B357" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C357" t="s" s="4">
+      <c r="C357" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D357" t="s" s="4">
+      <c r="D357" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E357" t="s" s="4">
+      <c r="E357" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F357" t="s" s="4">
+      <c r="F357" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G357" t="s" s="4">
+      <c r="G357" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H357" t="s" s="4">
+      <c r="H357" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I357" t="s" s="4">
+      <c r="I357" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10497,10 +10545,10 @@
       <c r="I359">
         <f>((C359-C358)^2+(D359- D358)^2)^.5</f>
       </c>
-      <c r="J359" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K359" s="4" t="s">
+      <c r="J359" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K359" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L359" t="n">
@@ -10544,28 +10592,28 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" t="s" s="4">
+      <c r="A361" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B361" t="s" s="4">
+      <c r="B361" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C361" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D361" t="s" s="4">
+      <c r="C361" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D361" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E361" t="s" s="4">
+      <c r="E361" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F361" t="s" s="4">
+      <c r="F361" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G361" t="s" s="4">
+      <c r="G361" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H361" t="s" s="4">
+      <c r="H361" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10590,28 +10638,28 @@
       </c>
     </row>
     <row r="363">
-      <c r="B363" t="s" s="4">
+      <c r="B363" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C363" t="s" s="4">
+      <c r="C363" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D363" t="s" s="4">
+      <c r="D363" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E363" t="s" s="4">
+      <c r="E363" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F363" t="s" s="4">
+      <c r="F363" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G363" t="s" s="4">
+      <c r="G363" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H363" t="s" s="4">
+      <c r="H363" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I363" t="s" s="4">
+      <c r="I363" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10670,10 +10718,10 @@
       <c r="I365">
         <f>((C365-C364)^2+(D365- D364)^2)^.5</f>
       </c>
-      <c r="J365" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K365" s="4" t="s">
+      <c r="J365" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K365" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L365" t="n">
@@ -10717,28 +10765,28 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" t="s" s="4">
+      <c r="A367" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B367" t="s" s="4">
+      <c r="B367" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C367" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D367" t="s" s="4">
+      <c r="C367" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D367" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E367" t="s" s="4">
+      <c r="E367" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F367" t="s" s="4">
+      <c r="F367" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G367" t="s" s="4">
+      <c r="G367" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H367" t="s" s="4">
+      <c r="H367" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10763,28 +10811,28 @@
       </c>
     </row>
     <row r="369">
-      <c r="B369" t="s" s="4">
+      <c r="B369" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C369" t="s" s="4">
+      <c r="C369" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D369" t="s" s="4">
+      <c r="D369" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E369" t="s" s="4">
+      <c r="E369" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F369" t="s" s="4">
+      <c r="F369" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G369" t="s" s="4">
+      <c r="G369" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H369" t="s" s="4">
+      <c r="H369" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I369" t="s" s="4">
+      <c r="I369" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10843,10 +10891,10 @@
       <c r="I371">
         <f>((C371-C370)^2+(D371- D370)^2)^.5</f>
       </c>
-      <c r="J371" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K371" s="4" t="s">
+      <c r="J371" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K371" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L371" t="n">
@@ -10890,28 +10938,28 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" t="s" s="4">
+      <c r="A373" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B373" t="s" s="4">
+      <c r="B373" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C373" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D373" t="s" s="4">
+      <c r="C373" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D373" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E373" t="s" s="4">
+      <c r="E373" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F373" t="s" s="4">
+      <c r="F373" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G373" t="s" s="4">
+      <c r="G373" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H373" t="s" s="4">
+      <c r="H373" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10936,28 +10984,28 @@
       </c>
     </row>
     <row r="375">
-      <c r="B375" t="s" s="4">
+      <c r="B375" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C375" t="s" s="4">
+      <c r="C375" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D375" t="s" s="4">
+      <c r="D375" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E375" t="s" s="4">
+      <c r="E375" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F375" t="s" s="4">
+      <c r="F375" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G375" t="s" s="4">
+      <c r="G375" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H375" t="s" s="4">
+      <c r="H375" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I375" t="s" s="4">
+      <c r="I375" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11016,10 +11064,10 @@
       <c r="I377">
         <f>((C377-C376)^2+(D377- D376)^2)^.5</f>
       </c>
-      <c r="J377" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K377" s="4" t="s">
+      <c r="J377" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K377" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L377" t="n">
@@ -11063,28 +11111,28 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" t="s" s="4">
+      <c r="A379" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B379" t="s" s="4">
+      <c r="B379" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C379" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D379" t="s" s="4">
+      <c r="C379" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D379" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E379" t="s" s="4">
+      <c r="E379" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F379" t="s" s="4">
+      <c r="F379" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G379" t="s" s="4">
+      <c r="G379" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H379" t="s" s="4">
+      <c r="H379" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11109,28 +11157,28 @@
       </c>
     </row>
     <row r="381">
-      <c r="B381" t="s" s="4">
+      <c r="B381" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C381" t="s" s="4">
+      <c r="C381" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D381" t="s" s="4">
+      <c r="D381" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E381" t="s" s="4">
+      <c r="E381" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F381" t="s" s="4">
+      <c r="F381" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G381" t="s" s="4">
+      <c r="G381" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H381" t="s" s="4">
+      <c r="H381" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I381" t="s" s="4">
+      <c r="I381" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11189,10 +11237,10 @@
       <c r="I383">
         <f>((C383-C382)^2+(D383- D382)^2)^.5</f>
       </c>
-      <c r="J383" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K383" s="4" t="s">
+      <c r="J383" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K383" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L383" t="n">
@@ -11236,28 +11284,28 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" t="s" s="4">
+      <c r="A385" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B385" t="s" s="4">
+      <c r="B385" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C385" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D385" t="s" s="4">
+      <c r="C385" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D385" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E385" t="s" s="4">
+      <c r="E385" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F385" t="s" s="4">
+      <c r="F385" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G385" t="s" s="4">
+      <c r="G385" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H385" t="s" s="4">
+      <c r="H385" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11282,28 +11330,28 @@
       </c>
     </row>
     <row r="387">
-      <c r="B387" t="s" s="4">
+      <c r="B387" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C387" t="s" s="4">
+      <c r="C387" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D387" t="s" s="4">
+      <c r="D387" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E387" t="s" s="4">
+      <c r="E387" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F387" t="s" s="4">
+      <c r="F387" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G387" t="s" s="4">
+      <c r="G387" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H387" t="s" s="4">
+      <c r="H387" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I387" t="s" s="4">
+      <c r="I387" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11362,10 +11410,10 @@
       <c r="I389">
         <f>((C389-C388)^2+(D389- D388)^2)^.5</f>
       </c>
-      <c r="J389" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K389" s="4" t="s">
+      <c r="J389" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K389" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L389" t="n">
@@ -11409,28 +11457,28 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" t="s" s="4">
+      <c r="A391" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B391" t="s" s="4">
+      <c r="B391" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C391" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D391" t="s" s="4">
+      <c r="C391" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D391" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E391" t="s" s="4">
+      <c r="E391" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F391" t="s" s="4">
+      <c r="F391" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G391" t="s" s="4">
+      <c r="G391" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H391" t="s" s="4">
+      <c r="H391" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11455,28 +11503,28 @@
       </c>
     </row>
     <row r="393">
-      <c r="B393" t="s" s="4">
+      <c r="B393" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C393" t="s" s="4">
+      <c r="C393" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D393" t="s" s="4">
+      <c r="D393" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E393" t="s" s="4">
+      <c r="E393" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F393" t="s" s="4">
+      <c r="F393" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G393" t="s" s="4">
+      <c r="G393" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H393" t="s" s="4">
+      <c r="H393" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I393" t="s" s="4">
+      <c r="I393" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11535,10 +11583,10 @@
       <c r="I395">
         <f>((C395-C394)^2+(D395- D394)^2)^.5</f>
       </c>
-      <c r="J395" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K395" s="4" t="s">
+      <c r="J395" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K395" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L395" t="n">
@@ -11582,28 +11630,28 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" t="s" s="4">
+      <c r="A397" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B397" t="s" s="4">
+      <c r="B397" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C397" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D397" t="s" s="4">
+      <c r="C397" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D397" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E397" t="s" s="4">
+      <c r="E397" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F397" t="s" s="4">
+      <c r="F397" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G397" t="s" s="4">
+      <c r="G397" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H397" t="s" s="4">
+      <c r="H397" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11628,28 +11676,28 @@
       </c>
     </row>
     <row r="399">
-      <c r="B399" t="s" s="4">
+      <c r="B399" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C399" t="s" s="4">
+      <c r="C399" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D399" t="s" s="4">
+      <c r="D399" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E399" t="s" s="4">
+      <c r="E399" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F399" t="s" s="4">
+      <c r="F399" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G399" t="s" s="4">
+      <c r="G399" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H399" t="s" s="4">
+      <c r="H399" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I399" t="s" s="4">
+      <c r="I399" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11708,10 +11756,10 @@
       <c r="I401">
         <f>((C401-C400)^2+(D401- D400)^2)^.5</f>
       </c>
-      <c r="J401" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K401" s="4" t="s">
+      <c r="J401" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K401" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L401" t="n">
@@ -11755,28 +11803,28 @@
       </c>
     </row>
     <row r="403">
-      <c r="A403" t="s" s="4">
+      <c r="A403" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B403" t="s" s="4">
+      <c r="B403" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C403" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D403" t="s" s="4">
+      <c r="C403" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D403" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E403" t="s" s="4">
+      <c r="E403" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F403" t="s" s="4">
+      <c r="F403" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G403" t="s" s="4">
+      <c r="G403" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H403" t="s" s="4">
+      <c r="H403" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11801,28 +11849,28 @@
       </c>
     </row>
     <row r="405">
-      <c r="B405" t="s" s="4">
+      <c r="B405" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C405" t="s" s="4">
+      <c r="C405" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D405" t="s" s="4">
+      <c r="D405" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E405" t="s" s="4">
+      <c r="E405" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F405" t="s" s="4">
+      <c r="F405" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G405" t="s" s="4">
+      <c r="G405" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H405" t="s" s="4">
+      <c r="H405" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I405" t="s" s="4">
+      <c r="I405" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11881,10 +11929,10 @@
       <c r="I407">
         <f>((C407-C406)^2+(D407- D406)^2)^.5</f>
       </c>
-      <c r="J407" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K407" s="4" t="s">
+      <c r="J407" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K407" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L407" t="n">
@@ -11928,28 +11976,28 @@
       </c>
     </row>
     <row r="409">
-      <c r="A409" t="s" s="4">
+      <c r="A409" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B409" t="s" s="4">
+      <c r="B409" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C409" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D409" t="s" s="4">
+      <c r="C409" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D409" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E409" t="s" s="4">
+      <c r="E409" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F409" t="s" s="4">
+      <c r="F409" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G409" t="s" s="4">
+      <c r="G409" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H409" t="s" s="4">
+      <c r="H409" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11974,28 +12022,28 @@
       </c>
     </row>
     <row r="411">
-      <c r="B411" t="s" s="4">
+      <c r="B411" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C411" t="s" s="4">
+      <c r="C411" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D411" t="s" s="4">
+      <c r="D411" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E411" t="s" s="4">
+      <c r="E411" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F411" t="s" s="4">
+      <c r="F411" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G411" t="s" s="4">
+      <c r="G411" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H411" t="s" s="4">
+      <c r="H411" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I411" t="s" s="4">
+      <c r="I411" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12054,10 +12102,10 @@
       <c r="I413">
         <f>((C413-C412)^2+(D413- D412)^2)^.5</f>
       </c>
-      <c r="J413" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K413" s="4" t="s">
+      <c r="J413" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K413" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L413" t="n">
@@ -12101,28 +12149,28 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" t="s" s="4">
+      <c r="A415" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B415" t="s" s="4">
+      <c r="B415" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C415" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D415" t="s" s="4">
+      <c r="C415" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D415" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E415" t="s" s="4">
+      <c r="E415" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F415" t="s" s="4">
+      <c r="F415" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G415" t="s" s="4">
+      <c r="G415" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H415" t="s" s="4">
+      <c r="H415" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -12147,28 +12195,28 @@
       </c>
     </row>
     <row r="417">
-      <c r="B417" t="s" s="4">
+      <c r="B417" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C417" t="s" s="4">
+      <c r="C417" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D417" t="s" s="4">
+      <c r="D417" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E417" t="s" s="4">
+      <c r="E417" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F417" t="s" s="4">
+      <c r="F417" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G417" t="s" s="4">
+      <c r="G417" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H417" t="s" s="4">
+      <c r="H417" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I417" t="s" s="4">
+      <c r="I417" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12227,10 +12275,10 @@
       <c r="I419">
         <f>((C419-C418)^2+(D419- D418)^2)^.5</f>
       </c>
-      <c r="J419" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K419" s="4" t="s">
+      <c r="J419" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K419" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L419" t="n">
@@ -12274,28 +12322,28 @@
       </c>
     </row>
     <row r="421">
-      <c r="A421" t="s" s="4">
+      <c r="A421" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B421" t="s" s="4">
+      <c r="B421" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C421" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D421" t="s" s="4">
+      <c r="C421" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D421" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E421" t="s" s="4">
+      <c r="E421" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F421" t="s" s="4">
+      <c r="F421" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G421" t="s" s="4">
+      <c r="G421" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H421" t="s" s="4">
+      <c r="H421" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -12320,28 +12368,28 @@
       </c>
     </row>
     <row r="423">
-      <c r="B423" t="s" s="4">
+      <c r="B423" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C423" t="s" s="4">
+      <c r="C423" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D423" t="s" s="4">
+      <c r="D423" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E423" t="s" s="4">
+      <c r="E423" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F423" t="s" s="4">
+      <c r="F423" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G423" t="s" s="4">
+      <c r="G423" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H423" t="s" s="4">
+      <c r="H423" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I423" t="s" s="4">
+      <c r="I423" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12400,10 +12448,10 @@
       <c r="I425">
         <f>((C425-C424)^2+(D425- D424)^2)^.5</f>
       </c>
-      <c r="J425" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K425" s="4" t="s">
+      <c r="J425" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K425" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L425" t="n">
@@ -12447,28 +12495,28 @@
       </c>
     </row>
     <row r="427">
-      <c r="A427" t="s" s="4">
+      <c r="A427" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B427" t="s" s="4">
+      <c r="B427" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C427" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D427" t="s" s="4">
+      <c r="C427" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D427" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E427" t="s" s="4">
+      <c r="E427" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F427" t="s" s="4">
+      <c r="F427" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G427" t="s" s="4">
+      <c r="G427" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H427" t="s" s="4">
+      <c r="H427" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -12493,28 +12541,28 @@
       </c>
     </row>
     <row r="429">
-      <c r="B429" t="s" s="4">
+      <c r="B429" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C429" t="s" s="4">
+      <c r="C429" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D429" t="s" s="4">
+      <c r="D429" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E429" t="s" s="4">
+      <c r="E429" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F429" t="s" s="4">
+      <c r="F429" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G429" t="s" s="4">
+      <c r="G429" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H429" t="s" s="4">
+      <c r="H429" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I429" t="s" s="4">
+      <c r="I429" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12602,10 +12650,10 @@
       <c r="I432">
         <f>((C432-C431)^2+(D432- D431)^2)^.5</f>
       </c>
-      <c r="J432" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K432" s="4" t="s">
+      <c r="J432" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K432" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L432" t="n">
@@ -12649,28 +12697,28 @@
       </c>
     </row>
     <row r="434">
-      <c r="A434" t="s" s="4">
+      <c r="A434" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B434" t="s" s="4">
+      <c r="B434" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C434" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D434" t="s" s="4">
+      <c r="C434" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D434" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E434" t="s" s="4">
+      <c r="E434" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F434" t="s" s="4">
+      <c r="F434" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G434" t="s" s="4">
+      <c r="G434" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H434" t="s" s="4">
+      <c r="H434" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -12695,28 +12743,28 @@
       </c>
     </row>
     <row r="436">
-      <c r="B436" t="s" s="4">
+      <c r="B436" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C436" t="s" s="4">
+      <c r="C436" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D436" t="s" s="4">
+      <c r="D436" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E436" t="s" s="4">
+      <c r="E436" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F436" t="s" s="4">
+      <c r="F436" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G436" t="s" s="4">
+      <c r="G436" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H436" t="s" s="4">
+      <c r="H436" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I436" t="s" s="4">
+      <c r="I436" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12775,10 +12823,10 @@
       <c r="I438">
         <f>((C438-C437)^2+(D438- D437)^2)^.5</f>
       </c>
-      <c r="J438" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K438" s="4" t="s">
+      <c r="J438" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K438" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L438" t="n">
@@ -12822,28 +12870,28 @@
       </c>
     </row>
     <row r="440">
-      <c r="A440" t="s" s="4">
+      <c r="A440" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B440" t="s" s="4">
+      <c r="B440" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C440" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D440" t="s" s="4">
+      <c r="C440" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D440" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E440" t="s" s="4">
+      <c r="E440" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F440" t="s" s="4">
+      <c r="F440" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G440" t="s" s="4">
+      <c r="G440" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H440" t="s" s="4">
+      <c r="H440" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -12868,28 +12916,28 @@
       </c>
     </row>
     <row r="442">
-      <c r="B442" t="s" s="4">
+      <c r="B442" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C442" t="s" s="4">
+      <c r="C442" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D442" t="s" s="4">
+      <c r="D442" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E442" t="s" s="4">
+      <c r="E442" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F442" t="s" s="4">
+      <c r="F442" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G442" t="s" s="4">
+      <c r="G442" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H442" t="s" s="4">
+      <c r="H442" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I442" t="s" s="4">
+      <c r="I442" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12948,10 +12996,10 @@
       <c r="I444">
         <f>((C444-C443)^2+(D444- D443)^2)^.5</f>
       </c>
-      <c r="J444" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K444" s="4" t="s">
+      <c r="J444" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K444" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L444" t="n">
@@ -12995,28 +13043,28 @@
       </c>
     </row>
     <row r="446">
-      <c r="A446" t="s" s="4">
+      <c r="A446" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B446" t="s" s="4">
+      <c r="B446" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C446" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D446" t="s" s="4">
+      <c r="C446" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D446" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E446" t="s" s="4">
+      <c r="E446" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F446" t="s" s="4">
+      <c r="F446" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G446" t="s" s="4">
+      <c r="G446" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H446" t="s" s="4">
+      <c r="H446" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -13041,28 +13089,28 @@
       </c>
     </row>
     <row r="448">
-      <c r="B448" t="s" s="4">
+      <c r="B448" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C448" t="s" s="4">
+      <c r="C448" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D448" t="s" s="4">
+      <c r="D448" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E448" t="s" s="4">
+      <c r="E448" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F448" t="s" s="4">
+      <c r="F448" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G448" t="s" s="4">
+      <c r="G448" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H448" t="s" s="4">
+      <c r="H448" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I448" t="s" s="4">
+      <c r="I448" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -13121,10 +13169,10 @@
       <c r="I450">
         <f>((C450-C449)^2+(D450- D449)^2)^.5</f>
       </c>
-      <c r="J450" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K450" s="4" t="s">
+      <c r="J450" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K450" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L450" t="n">
@@ -13168,28 +13216,28 @@
       </c>
     </row>
     <row r="452">
-      <c r="A452" t="s" s="4">
+      <c r="A452" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B452" t="s" s="4">
+      <c r="B452" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C452" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D452" t="s" s="4">
+      <c r="C452" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D452" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E452" t="s" s="4">
+      <c r="E452" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F452" t="s" s="4">
+      <c r="F452" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G452" t="s" s="4">
+      <c r="G452" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H452" t="s" s="4">
+      <c r="H452" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -13214,28 +13262,28 @@
       </c>
     </row>
     <row r="454">
-      <c r="B454" t="s" s="4">
+      <c r="B454" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C454" t="s" s="4">
+      <c r="C454" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D454" t="s" s="4">
+      <c r="D454" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E454" t="s" s="4">
+      <c r="E454" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F454" t="s" s="4">
+      <c r="F454" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G454" t="s" s="4">
+      <c r="G454" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H454" t="s" s="4">
+      <c r="H454" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I454" t="s" s="4">
+      <c r="I454" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -13294,10 +13342,10 @@
       <c r="I456">
         <f>((C456-C455)^2+(D456- D455)^2)^.5</f>
       </c>
-      <c r="J456" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K456" s="4" t="s">
+      <c r="J456" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K456" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L456" t="n">
@@ -13341,28 +13389,28 @@
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="s" s="4">
+      <c r="A458" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B458" t="s" s="4">
+      <c r="B458" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C458" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D458" t="s" s="4">
+      <c r="C458" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D458" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E458" t="s" s="4">
+      <c r="E458" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F458" t="s" s="4">
+      <c r="F458" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G458" t="s" s="4">
+      <c r="G458" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H458" t="s" s="4">
+      <c r="H458" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -13387,28 +13435,28 @@
       </c>
     </row>
     <row r="460">
-      <c r="B460" t="s" s="4">
+      <c r="B460" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C460" t="s" s="4">
+      <c r="C460" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D460" t="s" s="4">
+      <c r="D460" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E460" t="s" s="4">
+      <c r="E460" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F460" t="s" s="4">
+      <c r="F460" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G460" t="s" s="4">
+      <c r="G460" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H460" t="s" s="4">
+      <c r="H460" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I460" t="s" s="4">
+      <c r="I460" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -13467,10 +13515,10 @@
       <c r="I462">
         <f>((C462-C461)^2+(D462- D461)^2)^.5</f>
       </c>
-      <c r="J462" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K462" s="4" t="s">
+      <c r="J462" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K462" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L462" t="n">
@@ -13514,28 +13562,28 @@
       </c>
     </row>
     <row r="464">
-      <c r="A464" t="s" s="4">
+      <c r="A464" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B464" t="s" s="4">
+      <c r="B464" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C464" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D464" t="s" s="4">
+      <c r="C464" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D464" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E464" t="s" s="4">
+      <c r="E464" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F464" t="s" s="4">
+      <c r="F464" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G464" t="s" s="4">
+      <c r="G464" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H464" t="s" s="4">
+      <c r="H464" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -13560,28 +13608,28 @@
       </c>
     </row>
     <row r="466">
-      <c r="B466" t="s" s="4">
+      <c r="B466" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C466" t="s" s="4">
+      <c r="C466" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D466" t="s" s="4">
+      <c r="D466" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E466" t="s" s="4">
+      <c r="E466" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F466" t="s" s="4">
+      <c r="F466" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G466" t="s" s="4">
+      <c r="G466" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H466" t="s" s="4">
+      <c r="H466" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I466" t="s" s="4">
+      <c r="I466" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -13640,10 +13688,10 @@
       <c r="I468">
         <f>((C468-C467)^2+(D468- D467)^2)^.5</f>
       </c>
-      <c r="J468" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K468" s="4" t="s">
+      <c r="J468" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K468" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L468" t="n">
@@ -13687,28 +13735,28 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" t="s" s="4">
+      <c r="A470" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B470" t="s" s="4">
+      <c r="B470" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C470" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D470" t="s" s="4">
+      <c r="C470" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D470" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E470" t="s" s="4">
+      <c r="E470" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F470" t="s" s="4">
+      <c r="F470" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G470" t="s" s="4">
+      <c r="G470" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H470" t="s" s="4">
+      <c r="H470" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -13733,28 +13781,28 @@
       </c>
     </row>
     <row r="472">
-      <c r="B472" t="s" s="4">
+      <c r="B472" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C472" t="s" s="4">
+      <c r="C472" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D472" t="s" s="4">
+      <c r="D472" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E472" t="s" s="4">
+      <c r="E472" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F472" t="s" s="4">
+      <c r="F472" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G472" t="s" s="4">
+      <c r="G472" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H472" t="s" s="4">
+      <c r="H472" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I472" t="s" s="4">
+      <c r="I472" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -13813,10 +13861,10 @@
       <c r="I474">
         <f>((C474-C473)^2+(D474- D473)^2)^.5</f>
       </c>
-      <c r="J474" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K474" s="4" t="s">
+      <c r="J474" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K474" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L474" t="n">
@@ -13860,28 +13908,28 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" t="s" s="4">
+      <c r="A476" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B476" t="s" s="4">
+      <c r="B476" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C476" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D476" t="s" s="4">
+      <c r="C476" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D476" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E476" t="s" s="4">
+      <c r="E476" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F476" t="s" s="4">
+      <c r="F476" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G476" t="s" s="4">
+      <c r="G476" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H476" t="s" s="4">
+      <c r="H476" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -13906,28 +13954,28 @@
       </c>
     </row>
     <row r="478">
-      <c r="B478" t="s" s="4">
+      <c r="B478" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C478" t="s" s="4">
+      <c r="C478" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D478" t="s" s="4">
+      <c r="D478" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E478" t="s" s="4">
+      <c r="E478" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F478" t="s" s="4">
+      <c r="F478" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G478" t="s" s="4">
+      <c r="G478" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H478" t="s" s="4">
+      <c r="H478" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I478" t="s" s="4">
+      <c r="I478" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -13986,10 +14034,10 @@
       <c r="I480">
         <f>((C480-C479)^2+(D480- D479)^2)^.5</f>
       </c>
-      <c r="J480" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K480" s="4" t="s">
+      <c r="J480" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K480" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L480" t="n">
@@ -14033,28 +14081,28 @@
       </c>
     </row>
     <row r="482">
-      <c r="A482" t="s" s="4">
+      <c r="A482" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B482" t="s" s="4">
+      <c r="B482" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C482" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D482" t="s" s="4">
+      <c r="C482" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D482" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E482" t="s" s="4">
+      <c r="E482" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F482" t="s" s="4">
+      <c r="F482" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G482" t="s" s="4">
+      <c r="G482" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H482" t="s" s="4">
+      <c r="H482" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -14079,28 +14127,28 @@
       </c>
     </row>
     <row r="484">
-      <c r="B484" t="s" s="4">
+      <c r="B484" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C484" t="s" s="4">
+      <c r="C484" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D484" t="s" s="4">
+      <c r="D484" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E484" t="s" s="4">
+      <c r="E484" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F484" t="s" s="4">
+      <c r="F484" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G484" t="s" s="4">
+      <c r="G484" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H484" t="s" s="4">
+      <c r="H484" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I484" t="s" s="4">
+      <c r="I484" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -14159,10 +14207,10 @@
       <c r="I486">
         <f>((C486-C485)^2+(D486- D485)^2)^.5</f>
       </c>
-      <c r="J486" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K486" s="4" t="s">
+      <c r="J486" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K486" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L486" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c104_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c104_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16824" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21030" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="12">
+      <c r="C3" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -450,10 +468,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="12" t="s">
+      <c r="J9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -497,28 +515,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="12">
+      <c r="A11" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="12">
+      <c r="B11" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="12">
+      <c r="C11" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="12">
+      <c r="E11" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="12">
+      <c r="F11" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="12">
+      <c r="G11" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="12">
+      <c r="H11" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -543,28 +561,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="12">
+      <c r="B13" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="12">
+      <c r="C13" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="12">
+      <c r="D13" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="12">
+      <c r="E13" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="12">
+      <c r="F13" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="12">
+      <c r="G13" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="12">
+      <c r="H13" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="12">
+      <c r="I13" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -652,10 +670,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="12" t="s">
+      <c r="J16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -699,28 +717,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="12">
+      <c r="A18" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="12">
+      <c r="B18" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="12">
+      <c r="C18" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="12">
+      <c r="E18" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="12">
+      <c r="F18" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="12">
+      <c r="G18" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="12">
+      <c r="H18" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -745,28 +763,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="12">
+      <c r="B20" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="12">
+      <c r="C20" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="12">
+      <c r="D20" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="12">
+      <c r="E20" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="12">
+      <c r="F20" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="12">
+      <c r="G20" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="12">
+      <c r="H20" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="12">
+      <c r="I20" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -825,10 +843,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="12" t="s">
+      <c r="J22" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -872,28 +890,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="12">
+      <c r="A24" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="12">
+      <c r="B24" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="12">
+      <c r="C24" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="12">
+      <c r="E24" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="12">
+      <c r="F24" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="12">
+      <c r="G24" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="12">
+      <c r="H24" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -918,28 +936,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="12">
+      <c r="B26" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="12">
+      <c r="C26" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="12">
+      <c r="D26" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="12">
+      <c r="E26" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="12">
+      <c r="F26" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="12">
+      <c r="G26" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="12">
+      <c r="H26" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="12">
+      <c r="I26" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -998,10 +1016,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="12" t="s">
+      <c r="J28" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -1045,28 +1063,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="12">
+      <c r="A30" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="12">
+      <c r="B30" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s" s="12">
+      <c r="C30" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="12">
+      <c r="E30" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="12">
+      <c r="F30" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="12">
+      <c r="G30" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="12">
+      <c r="H30" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1091,28 +1109,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="12">
+      <c r="B32" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="12">
+      <c r="C32" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="12">
+      <c r="D32" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="12">
+      <c r="E32" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="12">
+      <c r="F32" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="12">
+      <c r="G32" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="12">
+      <c r="H32" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="12">
+      <c r="I32" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1171,10 +1189,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="12" t="s">
+      <c r="J34" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1218,28 +1236,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="12">
+      <c r="A36" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="12">
+      <c r="B36" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s" s="12">
+      <c r="C36" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="12">
+      <c r="E36" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="12">
+      <c r="F36" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="12">
+      <c r="G36" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="12">
+      <c r="H36" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1264,28 +1282,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="12">
+      <c r="B38" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="12">
+      <c r="C38" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="12">
+      <c r="D38" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="12">
+      <c r="E38" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="12">
+      <c r="F38" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="12">
+      <c r="G38" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="12">
+      <c r="H38" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="12">
+      <c r="I38" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1344,10 +1362,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="12" t="s">
+      <c r="J40" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1391,28 +1409,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="12">
+      <c r="A42" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="12">
+      <c r="B42" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s" s="12">
+      <c r="C42" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="12">
+      <c r="E42" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="12">
+      <c r="F42" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="12">
+      <c r="G42" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="12">
+      <c r="H42" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1437,28 +1455,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="12">
+      <c r="B44" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="12">
+      <c r="C44" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="12">
+      <c r="D44" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="12">
+      <c r="E44" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="12">
+      <c r="F44" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="12">
+      <c r="G44" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="12">
+      <c r="H44" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="12">
+      <c r="I44" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1546,10 +1564,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="12" t="s">
+      <c r="J47" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1593,28 +1611,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="12">
+      <c r="A49" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="12">
+      <c r="B49" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s" s="12">
+      <c r="C49" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="12">
+      <c r="E49" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="12">
+      <c r="F49" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="12">
+      <c r="G49" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="12">
+      <c r="H49" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1639,28 +1657,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="12">
+      <c r="B51" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="12">
+      <c r="C51" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="12">
+      <c r="D51" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="12">
+      <c r="E51" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="12">
+      <c r="F51" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="12">
+      <c r="G51" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="12">
+      <c r="H51" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="12">
+      <c r="I51" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1748,10 +1766,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="12" t="s">
+      <c r="J54" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1795,28 +1813,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="12">
+      <c r="A56" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="12">
+      <c r="B56" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="12">
+      <c r="C56" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="12">
+      <c r="E56" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="12">
+      <c r="F56" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="12">
+      <c r="G56" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="12">
+      <c r="H56" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1841,28 +1859,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="12">
+      <c r="B58" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="12">
+      <c r="C58" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="12">
+      <c r="D58" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="12">
+      <c r="E58" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="12">
+      <c r="F58" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="12">
+      <c r="G58" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="12">
+      <c r="H58" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="12">
+      <c r="I58" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1979,10 +1997,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K62" s="12" t="s">
+      <c r="J62" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -2026,28 +2044,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="12">
+      <c r="A64" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="12">
+      <c r="B64" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s" s="12">
+      <c r="C64" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="12">
+      <c r="E64" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="12">
+      <c r="F64" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="12">
+      <c r="G64" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="12">
+      <c r="H64" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2072,28 +2090,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="12">
+      <c r="B66" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="12">
+      <c r="C66" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="12">
+      <c r="D66" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="12">
+      <c r="E66" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="12">
+      <c r="F66" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="12">
+      <c r="G66" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="12">
+      <c r="H66" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="12">
+      <c r="I66" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2181,10 +2199,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="12" t="s">
+      <c r="J69" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2228,28 +2246,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="12">
+      <c r="A71" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="12">
+      <c r="B71" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="12">
+      <c r="C71" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="12">
+      <c r="E71" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="12">
+      <c r="F71" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="12">
+      <c r="G71" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="12">
+      <c r="H71" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2274,28 +2292,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="12">
+      <c r="B73" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="12">
+      <c r="C73" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="12">
+      <c r="D73" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="12">
+      <c r="E73" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="12">
+      <c r="F73" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="12">
+      <c r="G73" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="12">
+      <c r="H73" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="12">
+      <c r="I73" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2441,10 +2459,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="12" t="s">
+      <c r="J78" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2488,28 +2506,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="12">
+      <c r="A80" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="12">
+      <c r="B80" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="12">
+      <c r="C80" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="12">
+      <c r="E80" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="12">
+      <c r="F80" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="12">
+      <c r="G80" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="12">
+      <c r="H80" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2534,28 +2552,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="12">
+      <c r="B82" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="12">
+      <c r="C82" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="12">
+      <c r="D82" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="12">
+      <c r="E82" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="12">
+      <c r="F82" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="12">
+      <c r="G82" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="12">
+      <c r="H82" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="12">
+      <c r="I82" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2643,10 +2661,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="12" t="s">
+      <c r="J85" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2690,28 +2708,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="12">
+      <c r="A87" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="12">
+      <c r="B87" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="12">
+      <c r="C87" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="12">
+      <c r="E87" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="12">
+      <c r="F87" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="12">
+      <c r="G87" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="12">
+      <c r="H87" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2736,28 +2754,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="12">
+      <c r="B89" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="12">
+      <c r="C89" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="12">
+      <c r="D89" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="12">
+      <c r="E89" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="12">
+      <c r="F89" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="12">
+      <c r="G89" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="12">
+      <c r="H89" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="12">
+      <c r="I89" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2845,10 +2863,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="12" t="s">
+      <c r="J92" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2892,28 +2910,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="12">
+      <c r="A94" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="12">
+      <c r="B94" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="12">
+      <c r="C94" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="12">
+      <c r="E94" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="12">
+      <c r="F94" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="12">
+      <c r="G94" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="12">
+      <c r="H94" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2938,28 +2956,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="12">
+      <c r="B96" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="12">
+      <c r="C96" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="12">
+      <c r="D96" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="12">
+      <c r="E96" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="12">
+      <c r="F96" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="12">
+      <c r="G96" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="12">
+      <c r="H96" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="12">
+      <c r="I96" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3105,10 +3123,10 @@
       <c r="I101">
         <f>((C101-C100)^2+(D101- D100)^2)^.5</f>
       </c>
-      <c r="J101" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K101" s="12" t="s">
+      <c r="J101" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K101" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L101" t="n">
@@ -3152,28 +3170,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="12">
+      <c r="A103" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B103" t="s" s="12">
+      <c r="B103" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C103" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D103" t="s" s="12">
+      <c r="C103" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E103" t="s" s="12">
+      <c r="E103" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F103" t="s" s="12">
+      <c r="F103" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G103" t="s" s="12">
+      <c r="G103" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H103" t="s" s="12">
+      <c r="H103" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3198,28 +3216,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s" s="12">
+      <c r="B105" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C105" t="s" s="12">
+      <c r="C105" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D105" t="s" s="12">
+      <c r="D105" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E105" t="s" s="12">
+      <c r="E105" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F105" t="s" s="12">
+      <c r="F105" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G105" t="s" s="12">
+      <c r="G105" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H105" t="s" s="12">
+      <c r="H105" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I105" t="s" s="12">
+      <c r="I105" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3365,10 +3383,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K110" s="12" t="s">
+      <c r="J110" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K110" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3412,28 +3430,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="12">
+      <c r="A112" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="12">
+      <c r="B112" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s" s="12">
+      <c r="C112" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="12">
+      <c r="E112" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="12">
+      <c r="F112" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="12">
+      <c r="G112" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="12">
+      <c r="H112" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3458,28 +3476,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="12">
+      <c r="B114" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="12">
+      <c r="C114" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="12">
+      <c r="D114" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="12">
+      <c r="E114" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="12">
+      <c r="F114" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="12">
+      <c r="G114" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="12">
+      <c r="H114" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="12">
+      <c r="I114" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3567,10 +3585,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="12" t="s">
+      <c r="J117" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3614,28 +3632,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="12">
+      <c r="A119" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="12">
+      <c r="B119" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="12">
+      <c r="C119" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="12">
+      <c r="E119" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="12">
+      <c r="F119" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="12">
+      <c r="G119" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="12">
+      <c r="H119" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3660,28 +3678,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="12">
+      <c r="B121" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="12">
+      <c r="C121" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="12">
+      <c r="D121" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="12">
+      <c r="E121" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="12">
+      <c r="F121" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="12">
+      <c r="G121" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="12">
+      <c r="H121" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="12">
+      <c r="I121" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3769,10 +3787,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="12" t="s">
+      <c r="J124" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3816,28 +3834,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="12">
+      <c r="A126" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="12">
+      <c r="B126" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="12">
+      <c r="C126" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="12">
+      <c r="E126" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="12">
+      <c r="F126" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="12">
+      <c r="G126" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="12">
+      <c r="H126" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3862,28 +3880,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="12">
+      <c r="B128" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="12">
+      <c r="C128" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="12">
+      <c r="D128" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="12">
+      <c r="E128" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="12">
+      <c r="F128" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="12">
+      <c r="G128" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="12">
+      <c r="H128" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="12">
+      <c r="I128" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3942,10 +3960,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="12" t="s">
+      <c r="J130" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3989,28 +4007,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="12">
+      <c r="A132" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="12">
+      <c r="B132" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="12">
+      <c r="C132" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="12">
+      <c r="E132" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="12">
+      <c r="F132" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="12">
+      <c r="G132" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="12">
+      <c r="H132" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4035,28 +4053,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="12">
+      <c r="B134" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="12">
+      <c r="C134" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="12">
+      <c r="D134" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="12">
+      <c r="E134" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="12">
+      <c r="F134" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="12">
+      <c r="G134" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="12">
+      <c r="H134" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="12">
+      <c r="I134" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4115,10 +4133,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="12" t="s">
+      <c r="J136" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4162,28 +4180,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="12">
+      <c r="A138" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="12">
+      <c r="B138" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="12">
+      <c r="C138" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="12">
+      <c r="E138" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="12">
+      <c r="F138" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="12">
+      <c r="G138" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="12">
+      <c r="H138" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4208,28 +4226,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="12">
+      <c r="B140" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="12">
+      <c r="C140" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="12">
+      <c r="D140" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="12">
+      <c r="E140" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="12">
+      <c r="F140" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="12">
+      <c r="G140" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="12">
+      <c r="H140" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="12">
+      <c r="I140" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4288,10 +4306,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K142" s="12" t="s">
+      <c r="J142" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K142" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4335,28 +4353,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="12">
+      <c r="A144" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="12">
+      <c r="B144" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s" s="12">
+      <c r="C144" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="12">
+      <c r="E144" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="12">
+      <c r="F144" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="12">
+      <c r="G144" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="12">
+      <c r="H144" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4381,28 +4399,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="12">
+      <c r="B146" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="12">
+      <c r="C146" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="12">
+      <c r="D146" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="12">
+      <c r="E146" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="12">
+      <c r="F146" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="12">
+      <c r="G146" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="12">
+      <c r="H146" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="12">
+      <c r="I146" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4461,10 +4479,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K148" s="12" t="s">
+      <c r="J148" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K148" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4508,28 +4526,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="12">
+      <c r="A150" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="12">
+      <c r="B150" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s" s="12">
+      <c r="C150" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="12">
+      <c r="E150" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="12">
+      <c r="F150" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="12">
+      <c r="G150" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="12">
+      <c r="H150" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4554,28 +4572,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="12">
+      <c r="B152" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="12">
+      <c r="C152" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="12">
+      <c r="D152" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="12">
+      <c r="E152" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="12">
+      <c r="F152" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="12">
+      <c r="G152" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="12">
+      <c r="H152" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="12">
+      <c r="I152" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4634,10 +4652,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="12" t="s">
+      <c r="J154" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4681,28 +4699,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="12">
+      <c r="A156" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="12">
+      <c r="B156" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s" s="12">
+      <c r="C156" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="12">
+      <c r="E156" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="12">
+      <c r="F156" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="12">
+      <c r="G156" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="12">
+      <c r="H156" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4727,28 +4745,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="12">
+      <c r="B158" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="12">
+      <c r="C158" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="12">
+      <c r="D158" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="12">
+      <c r="E158" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="12">
+      <c r="F158" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="12">
+      <c r="G158" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="12">
+      <c r="H158" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="12">
+      <c r="I158" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4807,10 +4825,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K160" s="12" t="s">
+      <c r="J160" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K160" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4854,28 +4872,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="12">
+      <c r="A162" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="12">
+      <c r="B162" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s" s="12">
+      <c r="C162" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="12">
+      <c r="E162" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="12">
+      <c r="F162" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="12">
+      <c r="G162" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="12">
+      <c r="H162" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4900,28 +4918,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="12">
+      <c r="B164" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="12">
+      <c r="C164" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="12">
+      <c r="D164" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="12">
+      <c r="E164" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="12">
+      <c r="F164" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="12">
+      <c r="G164" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="12">
+      <c r="H164" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="12">
+      <c r="I164" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4980,10 +4998,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K166" s="12" t="s">
+      <c r="J166" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -5027,28 +5045,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="12">
+      <c r="A168" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="12">
+      <c r="B168" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s" s="12">
+      <c r="C168" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="12">
+      <c r="E168" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="12">
+      <c r="F168" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="12">
+      <c r="G168" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="12">
+      <c r="H168" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5073,28 +5091,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="12">
+      <c r="B170" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="12">
+      <c r="C170" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="12">
+      <c r="D170" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="12">
+      <c r="E170" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="12">
+      <c r="F170" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="12">
+      <c r="G170" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="12">
+      <c r="H170" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="12">
+      <c r="I170" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5153,10 +5171,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K172" s="12" t="s">
+      <c r="J172" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5200,28 +5218,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="12">
+      <c r="A174" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="12">
+      <c r="B174" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s" s="12">
+      <c r="C174" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="12">
+      <c r="E174" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="12">
+      <c r="F174" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="12">
+      <c r="G174" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="12">
+      <c r="H174" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5246,28 +5264,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="12">
+      <c r="B176" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="12">
+      <c r="C176" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="12">
+      <c r="D176" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="12">
+      <c r="E176" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="12">
+      <c r="F176" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="12">
+      <c r="G176" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="12">
+      <c r="H176" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="12">
+      <c r="I176" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5326,10 +5344,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="12" t="s">
+      <c r="J178" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5373,28 +5391,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="12">
+      <c r="A180" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="12">
+      <c r="B180" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="12">
+      <c r="C180" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="12">
+      <c r="E180" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="12">
+      <c r="F180" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="12">
+      <c r="G180" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="12">
+      <c r="H180" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5419,28 +5437,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="12">
+      <c r="B182" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="12">
+      <c r="C182" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="12">
+      <c r="D182" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="12">
+      <c r="E182" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="12">
+      <c r="F182" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="12">
+      <c r="G182" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="12">
+      <c r="H182" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="12">
+      <c r="I182" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5499,10 +5517,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="12" t="s">
+      <c r="J184" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5546,28 +5564,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="12">
+      <c r="A186" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="12">
+      <c r="B186" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="12">
+      <c r="C186" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="12">
+      <c r="E186" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="12">
+      <c r="F186" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="12">
+      <c r="G186" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="12">
+      <c r="H186" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5592,28 +5610,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="12">
+      <c r="B188" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="12">
+      <c r="C188" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="12">
+      <c r="D188" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="12">
+      <c r="E188" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="12">
+      <c r="F188" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="12">
+      <c r="G188" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="12">
+      <c r="H188" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="12">
+      <c r="I188" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5672,10 +5690,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K190" s="12" t="s">
+      <c r="J190" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K190" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5719,28 +5737,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="12">
+      <c r="A192" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="12">
+      <c r="B192" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s" s="12">
+      <c r="C192" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="12">
+      <c r="E192" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="12">
+      <c r="F192" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="12">
+      <c r="G192" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="12">
+      <c r="H192" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5765,28 +5783,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="12">
+      <c r="B194" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="12">
+      <c r="C194" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="12">
+      <c r="D194" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="12">
+      <c r="E194" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="12">
+      <c r="F194" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="12">
+      <c r="G194" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="12">
+      <c r="H194" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="12">
+      <c r="I194" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5845,10 +5863,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K196" s="12" t="s">
+      <c r="J196" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K196" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
@@ -5892,28 +5910,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s" s="12">
+      <c r="A198" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B198" t="s" s="12">
+      <c r="B198" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C198" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D198" t="s" s="12">
+      <c r="C198" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E198" t="s" s="12">
+      <c r="E198" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F198" t="s" s="12">
+      <c r="F198" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G198" t="s" s="12">
+      <c r="G198" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H198" t="s" s="12">
+      <c r="H198" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5938,28 +5956,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="s" s="12">
+      <c r="B200" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C200" t="s" s="12">
+      <c r="C200" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D200" t="s" s="12">
+      <c r="D200" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E200" t="s" s="12">
+      <c r="E200" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F200" t="s" s="12">
+      <c r="F200" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G200" t="s" s="12">
+      <c r="G200" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H200" t="s" s="12">
+      <c r="H200" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I200" t="s" s="12">
+      <c r="I200" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6018,10 +6036,10 @@
       <c r="I202">
         <f>((C202-C201)^2+(D202- D201)^2)^.5</f>
       </c>
-      <c r="J202" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K202" s="12" t="s">
+      <c r="J202" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L202" t="n">
@@ -6065,28 +6083,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s" s="12">
+      <c r="A204" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B204" t="s" s="12">
+      <c r="B204" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C204" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D204" t="s" s="12">
+      <c r="C204" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E204" t="s" s="12">
+      <c r="E204" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F204" t="s" s="12">
+      <c r="F204" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G204" t="s" s="12">
+      <c r="G204" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H204" t="s" s="12">
+      <c r="H204" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6111,28 +6129,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="s" s="12">
+      <c r="B206" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C206" t="s" s="12">
+      <c r="C206" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D206" t="s" s="12">
+      <c r="D206" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E206" t="s" s="12">
+      <c r="E206" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F206" t="s" s="12">
+      <c r="F206" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G206" t="s" s="12">
+      <c r="G206" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H206" t="s" s="12">
+      <c r="H206" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I206" t="s" s="12">
+      <c r="I206" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6191,10 +6209,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="12" t="s">
+      <c r="J208" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6238,28 +6256,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="12">
+      <c r="A210" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="12">
+      <c r="B210" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="12">
+      <c r="C210" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="12">
+      <c r="E210" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="12">
+      <c r="F210" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="12">
+      <c r="G210" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="12">
+      <c r="H210" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6284,28 +6302,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="12">
+      <c r="B212" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="12">
+      <c r="C212" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="12">
+      <c r="D212" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="12">
+      <c r="E212" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="12">
+      <c r="F212" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="12">
+      <c r="G212" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="12">
+      <c r="H212" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="12">
+      <c r="I212" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6364,10 +6382,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="12" t="s">
+      <c r="J214" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6411,28 +6429,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="12">
+      <c r="A216" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="12">
+      <c r="B216" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="12">
+      <c r="C216" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="12">
+      <c r="E216" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="12">
+      <c r="F216" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="12">
+      <c r="G216" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="12">
+      <c r="H216" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6457,28 +6475,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="12">
+      <c r="B218" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="12">
+      <c r="C218" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="12">
+      <c r="D218" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="12">
+      <c r="E218" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="12">
+      <c r="F218" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="12">
+      <c r="G218" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="12">
+      <c r="H218" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="12">
+      <c r="I218" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6537,10 +6555,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="12" t="s">
+      <c r="J220" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6584,28 +6602,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="12">
+      <c r="A222" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="12">
+      <c r="B222" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="12">
+      <c r="C222" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="12">
+      <c r="E222" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="12">
+      <c r="F222" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="12">
+      <c r="G222" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="12">
+      <c r="H222" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6630,28 +6648,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="12">
+      <c r="B224" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="12">
+      <c r="C224" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="12">
+      <c r="D224" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="12">
+      <c r="E224" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="12">
+      <c r="F224" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="12">
+      <c r="G224" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="12">
+      <c r="H224" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="12">
+      <c r="I224" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6710,10 +6728,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="12" t="s">
+      <c r="J226" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
@@ -6757,28 +6775,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="12">
+      <c r="A228" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B228" t="s" s="12">
+      <c r="B228" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C228" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D228" t="s" s="12">
+      <c r="C228" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E228" t="s" s="12">
+      <c r="E228" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F228" t="s" s="12">
+      <c r="F228" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G228" t="s" s="12">
+      <c r="G228" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H228" t="s" s="12">
+      <c r="H228" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6803,28 +6821,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s" s="12">
+      <c r="B230" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C230" t="s" s="12">
+      <c r="C230" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D230" t="s" s="12">
+      <c r="D230" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E230" t="s" s="12">
+      <c r="E230" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F230" t="s" s="12">
+      <c r="F230" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G230" t="s" s="12">
+      <c r="G230" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H230" t="s" s="12">
+      <c r="H230" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I230" t="s" s="12">
+      <c r="I230" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6883,10 +6901,10 @@
       <c r="I232">
         <f>((C232-C231)^2+(D232- D231)^2)^.5</f>
       </c>
-      <c r="J232" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K232" s="12" t="s">
+      <c r="J232" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L232" t="n">
@@ -6930,28 +6948,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="12">
+      <c r="A234" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B234" t="s" s="12">
+      <c r="B234" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C234" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D234" t="s" s="12">
+      <c r="C234" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E234" t="s" s="12">
+      <c r="E234" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F234" t="s" s="12">
+      <c r="F234" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G234" t="s" s="12">
+      <c r="G234" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H234" t="s" s="12">
+      <c r="H234" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6976,28 +6994,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="B236" t="s" s="12">
+      <c r="B236" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C236" t="s" s="12">
+      <c r="C236" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D236" t="s" s="12">
+      <c r="D236" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E236" t="s" s="12">
+      <c r="E236" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F236" t="s" s="12">
+      <c r="F236" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G236" t="s" s="12">
+      <c r="G236" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H236" t="s" s="12">
+      <c r="H236" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I236" t="s" s="12">
+      <c r="I236" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7056,10 +7074,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="12" t="s">
+      <c r="J238" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7103,28 +7121,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="12">
+      <c r="A240" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="12">
+      <c r="B240" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="12">
+      <c r="C240" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="12">
+      <c r="E240" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="12">
+      <c r="F240" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="12">
+      <c r="G240" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="12">
+      <c r="H240" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7149,28 +7167,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="12">
+      <c r="B242" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="12">
+      <c r="C242" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="12">
+      <c r="D242" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="12">
+      <c r="E242" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="12">
+      <c r="F242" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="12">
+      <c r="G242" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="12">
+      <c r="H242" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="12">
+      <c r="I242" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7229,10 +7247,10 @@
       <c r="I244">
         <f>((C244-C243)^2+(D244- D243)^2)^.5</f>
       </c>
-      <c r="J244" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K244" s="12" t="s">
+      <c r="J244" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K244" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L244" t="n">
@@ -7276,28 +7294,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="s" s="12">
+      <c r="A246" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B246" t="s" s="12">
+      <c r="B246" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C246" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D246" t="s" s="12">
+      <c r="C246" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E246" t="s" s="12">
+      <c r="E246" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F246" t="s" s="12">
+      <c r="F246" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G246" t="s" s="12">
+      <c r="G246" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H246" t="s" s="12">
+      <c r="H246" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7322,28 +7340,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="B248" t="s" s="12">
+      <c r="B248" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C248" t="s" s="12">
+      <c r="C248" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D248" t="s" s="12">
+      <c r="D248" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E248" t="s" s="12">
+      <c r="E248" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F248" t="s" s="12">
+      <c r="F248" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G248" t="s" s="12">
+      <c r="G248" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H248" t="s" s="12">
+      <c r="H248" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I248" t="s" s="12">
+      <c r="I248" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7402,10 +7420,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="12" t="s">
+      <c r="J250" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7449,28 +7467,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="12">
+      <c r="A252" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="12">
+      <c r="B252" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="12">
+      <c r="C252" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="12">
+      <c r="E252" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="12">
+      <c r="F252" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="12">
+      <c r="G252" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="12">
+      <c r="H252" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7495,28 +7513,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="12">
+      <c r="B254" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="12">
+      <c r="C254" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="12">
+      <c r="D254" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="12">
+      <c r="E254" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="12">
+      <c r="F254" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="12">
+      <c r="G254" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="12">
+      <c r="H254" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="12">
+      <c r="I254" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7575,10 +7593,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="12" t="s">
+      <c r="J256" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">
@@ -7622,28 +7640,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="s" s="12">
+      <c r="A258" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B258" t="s" s="12">
+      <c r="B258" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C258" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D258" t="s" s="12">
+      <c r="C258" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D258" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E258" t="s" s="12">
+      <c r="E258" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F258" t="s" s="12">
+      <c r="F258" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G258" t="s" s="12">
+      <c r="G258" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H258" t="s" s="12">
+      <c r="H258" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7668,28 +7686,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="B260" t="s" s="12">
+      <c r="B260" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C260" t="s" s="12">
+      <c r="C260" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D260" t="s" s="12">
+      <c r="D260" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E260" t="s" s="12">
+      <c r="E260" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F260" t="s" s="12">
+      <c r="F260" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G260" t="s" s="12">
+      <c r="G260" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H260" t="s" s="12">
+      <c r="H260" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I260" t="s" s="12">
+      <c r="I260" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7748,10 +7766,10 @@
       <c r="I262">
         <f>((C262-C261)^2+(D262- D261)^2)^.5</f>
       </c>
-      <c r="J262" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K262" s="12" t="s">
+      <c r="J262" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K262" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L262" t="n">
@@ -7795,28 +7813,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="s" s="12">
+      <c r="A264" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B264" t="s" s="12">
+      <c r="B264" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C264" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D264" t="s" s="12">
+      <c r="C264" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D264" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E264" t="s" s="12">
+      <c r="E264" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F264" t="s" s="12">
+      <c r="F264" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G264" t="s" s="12">
+      <c r="G264" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H264" t="s" s="12">
+      <c r="H264" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7841,28 +7859,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="B266" t="s" s="12">
+      <c r="B266" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C266" t="s" s="12">
+      <c r="C266" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D266" t="s" s="12">
+      <c r="D266" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E266" t="s" s="12">
+      <c r="E266" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F266" t="s" s="12">
+      <c r="F266" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G266" t="s" s="12">
+      <c r="G266" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H266" t="s" s="12">
+      <c r="H266" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I266" t="s" s="12">
+      <c r="I266" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7921,10 +7939,10 @@
       <c r="I268">
         <f>((C268-C267)^2+(D268- D267)^2)^.5</f>
       </c>
-      <c r="J268" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K268" s="12" t="s">
+      <c r="J268" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K268" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L268" t="n">
@@ -7968,28 +7986,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s" s="12">
+      <c r="A270" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B270" t="s" s="12">
+      <c r="B270" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C270" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D270" t="s" s="12">
+      <c r="C270" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D270" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E270" t="s" s="12">
+      <c r="E270" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F270" t="s" s="12">
+      <c r="F270" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G270" t="s" s="12">
+      <c r="G270" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H270" t="s" s="12">
+      <c r="H270" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8014,28 +8032,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="B272" t="s" s="12">
+      <c r="B272" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C272" t="s" s="12">
+      <c r="C272" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D272" t="s" s="12">
+      <c r="D272" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E272" t="s" s="12">
+      <c r="E272" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F272" t="s" s="12">
+      <c r="F272" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G272" t="s" s="12">
+      <c r="G272" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H272" t="s" s="12">
+      <c r="H272" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I272" t="s" s="12">
+      <c r="I272" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8094,10 +8112,10 @@
       <c r="I274">
         <f>((C274-C273)^2+(D274- D273)^2)^.5</f>
       </c>
-      <c r="J274" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K274" s="12" t="s">
+      <c r="J274" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K274" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L274" t="n">
@@ -8141,28 +8159,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="s" s="12">
+      <c r="A276" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B276" t="s" s="12">
+      <c r="B276" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C276" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D276" t="s" s="12">
+      <c r="C276" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D276" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E276" t="s" s="12">
+      <c r="E276" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F276" t="s" s="12">
+      <c r="F276" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G276" t="s" s="12">
+      <c r="G276" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H276" t="s" s="12">
+      <c r="H276" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8187,28 +8205,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="B278" t="s" s="12">
+      <c r="B278" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C278" t="s" s="12">
+      <c r="C278" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D278" t="s" s="12">
+      <c r="D278" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E278" t="s" s="12">
+      <c r="E278" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F278" t="s" s="12">
+      <c r="F278" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G278" t="s" s="12">
+      <c r="G278" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H278" t="s" s="12">
+      <c r="H278" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I278" t="s" s="12">
+      <c r="I278" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8267,10 +8285,10 @@
       <c r="I280">
         <f>((C280-C279)^2+(D280- D279)^2)^.5</f>
       </c>
-      <c r="J280" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K280" s="12" t="s">
+      <c r="J280" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K280" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L280" t="n">
@@ -8314,28 +8332,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="s" s="12">
+      <c r="A282" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B282" t="s" s="12">
+      <c r="B282" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C282" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D282" t="s" s="12">
+      <c r="C282" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D282" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E282" t="s" s="12">
+      <c r="E282" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F282" t="s" s="12">
+      <c r="F282" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G282" t="s" s="12">
+      <c r="G282" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H282" t="s" s="12">
+      <c r="H282" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8360,28 +8378,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="B284" t="s" s="12">
+      <c r="B284" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C284" t="s" s="12">
+      <c r="C284" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D284" t="s" s="12">
+      <c r="D284" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E284" t="s" s="12">
+      <c r="E284" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F284" t="s" s="12">
+      <c r="F284" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G284" t="s" s="12">
+      <c r="G284" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H284" t="s" s="12">
+      <c r="H284" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I284" t="s" s="12">
+      <c r="I284" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8440,10 +8458,10 @@
       <c r="I286">
         <f>((C286-C285)^2+(D286- D285)^2)^.5</f>
       </c>
-      <c r="J286" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K286" s="12" t="s">
+      <c r="J286" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K286" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L286" t="n">
@@ -8487,28 +8505,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="s" s="12">
+      <c r="A288" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B288" t="s" s="12">
+      <c r="B288" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C288" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D288" t="s" s="12">
+      <c r="C288" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D288" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E288" t="s" s="12">
+      <c r="E288" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F288" t="s" s="12">
+      <c r="F288" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G288" t="s" s="12">
+      <c r="G288" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H288" t="s" s="12">
+      <c r="H288" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8533,28 +8551,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="B290" t="s" s="12">
+      <c r="B290" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C290" t="s" s="12">
+      <c r="C290" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D290" t="s" s="12">
+      <c r="D290" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E290" t="s" s="12">
+      <c r="E290" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F290" t="s" s="12">
+      <c r="F290" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G290" t="s" s="12">
+      <c r="G290" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H290" t="s" s="12">
+      <c r="H290" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I290" t="s" s="12">
+      <c r="I290" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8613,10 +8631,10 @@
       <c r="I292">
         <f>((C292-C291)^2+(D292- D291)^2)^.5</f>
       </c>
-      <c r="J292" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K292" s="12" t="s">
+      <c r="J292" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K292" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L292" t="n">
@@ -8660,28 +8678,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="s" s="12">
+      <c r="A294" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B294" t="s" s="12">
+      <c r="B294" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C294" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D294" t="s" s="12">
+      <c r="C294" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D294" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E294" t="s" s="12">
+      <c r="E294" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F294" t="s" s="12">
+      <c r="F294" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G294" t="s" s="12">
+      <c r="G294" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H294" t="s" s="12">
+      <c r="H294" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8706,28 +8724,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="B296" t="s" s="12">
+      <c r="B296" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C296" t="s" s="12">
+      <c r="C296" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D296" t="s" s="12">
+      <c r="D296" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E296" t="s" s="12">
+      <c r="E296" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F296" t="s" s="12">
+      <c r="F296" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G296" t="s" s="12">
+      <c r="G296" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H296" t="s" s="12">
+      <c r="H296" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I296" t="s" s="12">
+      <c r="I296" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8786,10 +8804,10 @@
       <c r="I298">
         <f>((C298-C297)^2+(D298- D297)^2)^.5</f>
       </c>
-      <c r="J298" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K298" s="12" t="s">
+      <c r="J298" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K298" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L298" t="n">
@@ -8833,28 +8851,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="s" s="12">
+      <c r="A300" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B300" t="s" s="12">
+      <c r="B300" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C300" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D300" t="s" s="12">
+      <c r="C300" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D300" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E300" t="s" s="12">
+      <c r="E300" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F300" t="s" s="12">
+      <c r="F300" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G300" t="s" s="12">
+      <c r="G300" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H300" t="s" s="12">
+      <c r="H300" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8879,28 +8897,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="B302" t="s" s="12">
+      <c r="B302" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C302" t="s" s="12">
+      <c r="C302" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D302" t="s" s="12">
+      <c r="D302" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E302" t="s" s="12">
+      <c r="E302" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F302" t="s" s="12">
+      <c r="F302" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G302" t="s" s="12">
+      <c r="G302" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H302" t="s" s="12">
+      <c r="H302" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I302" t="s" s="12">
+      <c r="I302" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8959,10 +8977,10 @@
       <c r="I304">
         <f>((C304-C303)^2+(D304- D303)^2)^.5</f>
       </c>
-      <c r="J304" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K304" s="12" t="s">
+      <c r="J304" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K304" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L304" t="n">
@@ -9006,28 +9024,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="s" s="12">
+      <c r="A306" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B306" t="s" s="12">
+      <c r="B306" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C306" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D306" t="s" s="12">
+      <c r="C306" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D306" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E306" t="s" s="12">
+      <c r="E306" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F306" t="s" s="12">
+      <c r="F306" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G306" t="s" s="12">
+      <c r="G306" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H306" t="s" s="12">
+      <c r="H306" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9052,28 +9070,28 @@
       </c>
     </row>
     <row r="308">
-      <c r="B308" t="s" s="12">
+      <c r="B308" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C308" t="s" s="12">
+      <c r="C308" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D308" t="s" s="12">
+      <c r="D308" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E308" t="s" s="12">
+      <c r="E308" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F308" t="s" s="12">
+      <c r="F308" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G308" t="s" s="12">
+      <c r="G308" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H308" t="s" s="12">
+      <c r="H308" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I308" t="s" s="12">
+      <c r="I308" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9132,10 +9150,10 @@
       <c r="I310">
         <f>((C310-C309)^2+(D310- D309)^2)^.5</f>
       </c>
-      <c r="J310" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K310" s="12" t="s">
+      <c r="J310" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K310" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L310" t="n">
@@ -9179,28 +9197,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="s" s="12">
+      <c r="A312" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B312" t="s" s="12">
+      <c r="B312" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C312" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D312" t="s" s="12">
+      <c r="C312" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D312" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E312" t="s" s="12">
+      <c r="E312" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F312" t="s" s="12">
+      <c r="F312" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G312" t="s" s="12">
+      <c r="G312" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H312" t="s" s="12">
+      <c r="H312" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9225,28 +9243,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="B314" t="s" s="12">
+      <c r="B314" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C314" t="s" s="12">
+      <c r="C314" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D314" t="s" s="12">
+      <c r="D314" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E314" t="s" s="12">
+      <c r="E314" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F314" t="s" s="12">
+      <c r="F314" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G314" t="s" s="12">
+      <c r="G314" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H314" t="s" s="12">
+      <c r="H314" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I314" t="s" s="12">
+      <c r="I314" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9305,10 +9323,10 @@
       <c r="I316">
         <f>((C316-C315)^2+(D316- D315)^2)^.5</f>
       </c>
-      <c r="J316" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K316" s="12" t="s">
+      <c r="J316" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K316" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L316" t="n">
@@ -9352,28 +9370,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="s" s="12">
+      <c r="A318" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B318" t="s" s="12">
+      <c r="B318" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C318" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D318" t="s" s="12">
+      <c r="C318" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D318" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E318" t="s" s="12">
+      <c r="E318" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F318" t="s" s="12">
+      <c r="F318" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G318" t="s" s="12">
+      <c r="G318" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H318" t="s" s="12">
+      <c r="H318" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9398,28 +9416,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="B320" t="s" s="12">
+      <c r="B320" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C320" t="s" s="12">
+      <c r="C320" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D320" t="s" s="12">
+      <c r="D320" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E320" t="s" s="12">
+      <c r="E320" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F320" t="s" s="12">
+      <c r="F320" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G320" t="s" s="12">
+      <c r="G320" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H320" t="s" s="12">
+      <c r="H320" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I320" t="s" s="12">
+      <c r="I320" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9478,10 +9496,10 @@
       <c r="I322">
         <f>((C322-C321)^2+(D322- D321)^2)^.5</f>
       </c>
-      <c r="J322" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K322" s="12" t="s">
+      <c r="J322" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K322" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L322" t="n">
@@ -9525,28 +9543,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="s" s="12">
+      <c r="A324" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B324" t="s" s="12">
+      <c r="B324" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C324" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D324" t="s" s="12">
+      <c r="C324" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D324" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E324" t="s" s="12">
+      <c r="E324" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F324" t="s" s="12">
+      <c r="F324" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G324" t="s" s="12">
+      <c r="G324" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H324" t="s" s="12">
+      <c r="H324" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9571,28 +9589,28 @@
       </c>
     </row>
     <row r="326">
-      <c r="B326" t="s" s="12">
+      <c r="B326" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C326" t="s" s="12">
+      <c r="C326" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D326" t="s" s="12">
+      <c r="D326" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E326" t="s" s="12">
+      <c r="E326" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F326" t="s" s="12">
+      <c r="F326" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G326" t="s" s="12">
+      <c r="G326" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H326" t="s" s="12">
+      <c r="H326" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I326" t="s" s="12">
+      <c r="I326" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9651,10 +9669,10 @@
       <c r="I328">
         <f>((C328-C327)^2+(D328- D327)^2)^.5</f>
       </c>
-      <c r="J328" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K328" s="12" t="s">
+      <c r="J328" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K328" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L328" t="n">
@@ -9698,28 +9716,28 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="s" s="12">
+      <c r="A330" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B330" t="s" s="12">
+      <c r="B330" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C330" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D330" t="s" s="12">
+      <c r="C330" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D330" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E330" t="s" s="12">
+      <c r="E330" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F330" t="s" s="12">
+      <c r="F330" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G330" t="s" s="12">
+      <c r="G330" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H330" t="s" s="12">
+      <c r="H330" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9744,28 +9762,28 @@
       </c>
     </row>
     <row r="332">
-      <c r="B332" t="s" s="12">
+      <c r="B332" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C332" t="s" s="12">
+      <c r="C332" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D332" t="s" s="12">
+      <c r="D332" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E332" t="s" s="12">
+      <c r="E332" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F332" t="s" s="12">
+      <c r="F332" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G332" t="s" s="12">
+      <c r="G332" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H332" t="s" s="12">
+      <c r="H332" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I332" t="s" s="12">
+      <c r="I332" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9824,10 +9842,10 @@
       <c r="I334">
         <f>((C334-C333)^2+(D334- D333)^2)^.5</f>
       </c>
-      <c r="J334" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K334" s="12" t="s">
+      <c r="J334" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K334" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L334" t="n">
@@ -9871,28 +9889,28 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="s" s="12">
+      <c r="A336" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B336" t="s" s="12">
+      <c r="B336" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C336" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D336" t="s" s="12">
+      <c r="C336" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D336" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E336" t="s" s="12">
+      <c r="E336" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F336" t="s" s="12">
+      <c r="F336" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G336" t="s" s="12">
+      <c r="G336" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H336" t="s" s="12">
+      <c r="H336" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9917,28 +9935,28 @@
       </c>
     </row>
     <row r="338">
-      <c r="B338" t="s" s="12">
+      <c r="B338" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C338" t="s" s="12">
+      <c r="C338" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D338" t="s" s="12">
+      <c r="D338" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E338" t="s" s="12">
+      <c r="E338" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F338" t="s" s="12">
+      <c r="F338" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G338" t="s" s="12">
+      <c r="G338" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H338" t="s" s="12">
+      <c r="H338" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I338" t="s" s="12">
+      <c r="I338" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9997,10 +10015,10 @@
       <c r="I340">
         <f>((C340-C339)^2+(D340- D339)^2)^.5</f>
       </c>
-      <c r="J340" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K340" s="12" t="s">
+      <c r="J340" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K340" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L340" t="n">
@@ -10044,28 +10062,28 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="s" s="12">
+      <c r="A342" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B342" t="s" s="12">
+      <c r="B342" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C342" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D342" t="s" s="12">
+      <c r="C342" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D342" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E342" t="s" s="12">
+      <c r="E342" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F342" t="s" s="12">
+      <c r="F342" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G342" t="s" s="12">
+      <c r="G342" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H342" t="s" s="12">
+      <c r="H342" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10090,28 +10108,28 @@
       </c>
     </row>
     <row r="344">
-      <c r="B344" t="s" s="12">
+      <c r="B344" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C344" t="s" s="12">
+      <c r="C344" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D344" t="s" s="12">
+      <c r="D344" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E344" t="s" s="12">
+      <c r="E344" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F344" t="s" s="12">
+      <c r="F344" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G344" t="s" s="12">
+      <c r="G344" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H344" t="s" s="12">
+      <c r="H344" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I344" t="s" s="12">
+      <c r="I344" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10199,10 +10217,10 @@
       <c r="I347">
         <f>((C347-C346)^2+(D347- D346)^2)^.5</f>
       </c>
-      <c r="J347" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K347" s="12" t="s">
+      <c r="J347" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K347" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L347" t="n">
@@ -10246,28 +10264,28 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="s" s="12">
+      <c r="A349" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B349" t="s" s="12">
+      <c r="B349" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C349" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D349" t="s" s="12">
+      <c r="C349" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D349" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E349" t="s" s="12">
+      <c r="E349" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F349" t="s" s="12">
+      <c r="F349" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G349" t="s" s="12">
+      <c r="G349" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H349" t="s" s="12">
+      <c r="H349" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10292,28 +10310,28 @@
       </c>
     </row>
     <row r="351">
-      <c r="B351" t="s" s="12">
+      <c r="B351" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C351" t="s" s="12">
+      <c r="C351" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D351" t="s" s="12">
+      <c r="D351" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E351" t="s" s="12">
+      <c r="E351" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F351" t="s" s="12">
+      <c r="F351" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G351" t="s" s="12">
+      <c r="G351" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H351" t="s" s="12">
+      <c r="H351" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I351" t="s" s="12">
+      <c r="I351" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10372,10 +10390,10 @@
       <c r="I353">
         <f>((C353-C352)^2+(D353- D352)^2)^.5</f>
       </c>
-      <c r="J353" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K353" s="12" t="s">
+      <c r="J353" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K353" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L353" t="n">
@@ -10419,28 +10437,28 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="s" s="12">
+      <c r="A355" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B355" t="s" s="12">
+      <c r="B355" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C355" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D355" t="s" s="12">
+      <c r="C355" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D355" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E355" t="s" s="12">
+      <c r="E355" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F355" t="s" s="12">
+      <c r="F355" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G355" t="s" s="12">
+      <c r="G355" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H355" t="s" s="12">
+      <c r="H355" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10465,28 +10483,28 @@
       </c>
     </row>
     <row r="357">
-      <c r="B357" t="s" s="12">
+      <c r="B357" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C357" t="s" s="12">
+      <c r="C357" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D357" t="s" s="12">
+      <c r="D357" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E357" t="s" s="12">
+      <c r="E357" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F357" t="s" s="12">
+      <c r="F357" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G357" t="s" s="12">
+      <c r="G357" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H357" t="s" s="12">
+      <c r="H357" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I357" t="s" s="12">
+      <c r="I357" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10545,10 +10563,10 @@
       <c r="I359">
         <f>((C359-C358)^2+(D359- D358)^2)^.5</f>
       </c>
-      <c r="J359" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K359" s="12" t="s">
+      <c r="J359" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K359" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L359" t="n">
@@ -10592,28 +10610,28 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" t="s" s="12">
+      <c r="A361" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B361" t="s" s="12">
+      <c r="B361" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C361" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D361" t="s" s="12">
+      <c r="C361" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D361" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E361" t="s" s="12">
+      <c r="E361" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F361" t="s" s="12">
+      <c r="F361" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G361" t="s" s="12">
+      <c r="G361" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H361" t="s" s="12">
+      <c r="H361" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10638,28 +10656,28 @@
       </c>
     </row>
     <row r="363">
-      <c r="B363" t="s" s="12">
+      <c r="B363" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C363" t="s" s="12">
+      <c r="C363" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D363" t="s" s="12">
+      <c r="D363" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E363" t="s" s="12">
+      <c r="E363" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F363" t="s" s="12">
+      <c r="F363" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G363" t="s" s="12">
+      <c r="G363" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H363" t="s" s="12">
+      <c r="H363" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I363" t="s" s="12">
+      <c r="I363" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10718,10 +10736,10 @@
       <c r="I365">
         <f>((C365-C364)^2+(D365- D364)^2)^.5</f>
       </c>
-      <c r="J365" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K365" s="12" t="s">
+      <c r="J365" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K365" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L365" t="n">
@@ -10765,28 +10783,28 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" t="s" s="12">
+      <c r="A367" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B367" t="s" s="12">
+      <c r="B367" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C367" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D367" t="s" s="12">
+      <c r="C367" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D367" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E367" t="s" s="12">
+      <c r="E367" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F367" t="s" s="12">
+      <c r="F367" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G367" t="s" s="12">
+      <c r="G367" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H367" t="s" s="12">
+      <c r="H367" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10811,28 +10829,28 @@
       </c>
     </row>
     <row r="369">
-      <c r="B369" t="s" s="12">
+      <c r="B369" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C369" t="s" s="12">
+      <c r="C369" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D369" t="s" s="12">
+      <c r="D369" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E369" t="s" s="12">
+      <c r="E369" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F369" t="s" s="12">
+      <c r="F369" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G369" t="s" s="12">
+      <c r="G369" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H369" t="s" s="12">
+      <c r="H369" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I369" t="s" s="12">
+      <c r="I369" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10891,10 +10909,10 @@
       <c r="I371">
         <f>((C371-C370)^2+(D371- D370)^2)^.5</f>
       </c>
-      <c r="J371" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K371" s="12" t="s">
+      <c r="J371" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K371" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L371" t="n">
@@ -10938,28 +10956,28 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" t="s" s="12">
+      <c r="A373" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B373" t="s" s="12">
+      <c r="B373" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C373" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D373" t="s" s="12">
+      <c r="C373" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D373" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E373" t="s" s="12">
+      <c r="E373" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F373" t="s" s="12">
+      <c r="F373" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G373" t="s" s="12">
+      <c r="G373" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H373" t="s" s="12">
+      <c r="H373" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10984,28 +11002,28 @@
       </c>
     </row>
     <row r="375">
-      <c r="B375" t="s" s="12">
+      <c r="B375" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C375" t="s" s="12">
+      <c r="C375" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D375" t="s" s="12">
+      <c r="D375" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E375" t="s" s="12">
+      <c r="E375" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F375" t="s" s="12">
+      <c r="F375" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G375" t="s" s="12">
+      <c r="G375" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H375" t="s" s="12">
+      <c r="H375" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I375" t="s" s="12">
+      <c r="I375" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11064,10 +11082,10 @@
       <c r="I377">
         <f>((C377-C376)^2+(D377- D376)^2)^.5</f>
       </c>
-      <c r="J377" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K377" s="12" t="s">
+      <c r="J377" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K377" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L377" t="n">
@@ -11111,28 +11129,28 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" t="s" s="12">
+      <c r="A379" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B379" t="s" s="12">
+      <c r="B379" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C379" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D379" t="s" s="12">
+      <c r="C379" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D379" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E379" t="s" s="12">
+      <c r="E379" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F379" t="s" s="12">
+      <c r="F379" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G379" t="s" s="12">
+      <c r="G379" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H379" t="s" s="12">
+      <c r="H379" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11157,28 +11175,28 @@
       </c>
     </row>
     <row r="381">
-      <c r="B381" t="s" s="12">
+      <c r="B381" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C381" t="s" s="12">
+      <c r="C381" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D381" t="s" s="12">
+      <c r="D381" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E381" t="s" s="12">
+      <c r="E381" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F381" t="s" s="12">
+      <c r="F381" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G381" t="s" s="12">
+      <c r="G381" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H381" t="s" s="12">
+      <c r="H381" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I381" t="s" s="12">
+      <c r="I381" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11237,10 +11255,10 @@
       <c r="I383">
         <f>((C383-C382)^2+(D383- D382)^2)^.5</f>
       </c>
-      <c r="J383" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K383" s="12" t="s">
+      <c r="J383" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K383" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L383" t="n">
@@ -11284,28 +11302,28 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" t="s" s="12">
+      <c r="A385" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B385" t="s" s="12">
+      <c r="B385" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C385" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D385" t="s" s="12">
+      <c r="C385" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D385" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E385" t="s" s="12">
+      <c r="E385" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F385" t="s" s="12">
+      <c r="F385" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G385" t="s" s="12">
+      <c r="G385" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H385" t="s" s="12">
+      <c r="H385" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11330,28 +11348,28 @@
       </c>
     </row>
     <row r="387">
-      <c r="B387" t="s" s="12">
+      <c r="B387" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C387" t="s" s="12">
+      <c r="C387" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D387" t="s" s="12">
+      <c r="D387" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E387" t="s" s="12">
+      <c r="E387" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F387" t="s" s="12">
+      <c r="F387" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G387" t="s" s="12">
+      <c r="G387" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H387" t="s" s="12">
+      <c r="H387" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I387" t="s" s="12">
+      <c r="I387" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11410,10 +11428,10 @@
       <c r="I389">
         <f>((C389-C388)^2+(D389- D388)^2)^.5</f>
       </c>
-      <c r="J389" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K389" s="12" t="s">
+      <c r="J389" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K389" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L389" t="n">
@@ -11457,28 +11475,28 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" t="s" s="12">
+      <c r="A391" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B391" t="s" s="12">
+      <c r="B391" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C391" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D391" t="s" s="12">
+      <c r="C391" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D391" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E391" t="s" s="12">
+      <c r="E391" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F391" t="s" s="12">
+      <c r="F391" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G391" t="s" s="12">
+      <c r="G391" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H391" t="s" s="12">
+      <c r="H391" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11503,28 +11521,28 @@
       </c>
     </row>
     <row r="393">
-      <c r="B393" t="s" s="12">
+      <c r="B393" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C393" t="s" s="12">
+      <c r="C393" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D393" t="s" s="12">
+      <c r="D393" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E393" t="s" s="12">
+      <c r="E393" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F393" t="s" s="12">
+      <c r="F393" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G393" t="s" s="12">
+      <c r="G393" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H393" t="s" s="12">
+      <c r="H393" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I393" t="s" s="12">
+      <c r="I393" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11583,10 +11601,10 @@
       <c r="I395">
         <f>((C395-C394)^2+(D395- D394)^2)^.5</f>
       </c>
-      <c r="J395" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K395" s="12" t="s">
+      <c r="J395" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K395" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L395" t="n">
@@ -11630,28 +11648,28 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" t="s" s="12">
+      <c r="A397" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B397" t="s" s="12">
+      <c r="B397" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C397" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D397" t="s" s="12">
+      <c r="C397" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D397" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E397" t="s" s="12">
+      <c r="E397" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F397" t="s" s="12">
+      <c r="F397" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G397" t="s" s="12">
+      <c r="G397" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H397" t="s" s="12">
+      <c r="H397" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11676,28 +11694,28 @@
       </c>
     </row>
     <row r="399">
-      <c r="B399" t="s" s="12">
+      <c r="B399" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C399" t="s" s="12">
+      <c r="C399" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D399" t="s" s="12">
+      <c r="D399" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E399" t="s" s="12">
+      <c r="E399" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F399" t="s" s="12">
+      <c r="F399" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G399" t="s" s="12">
+      <c r="G399" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H399" t="s" s="12">
+      <c r="H399" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I399" t="s" s="12">
+      <c r="I399" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11756,10 +11774,10 @@
       <c r="I401">
         <f>((C401-C400)^2+(D401- D400)^2)^.5</f>
       </c>
-      <c r="J401" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K401" s="12" t="s">
+      <c r="J401" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K401" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L401" t="n">
@@ -11803,28 +11821,28 @@
       </c>
     </row>
     <row r="403">
-      <c r="A403" t="s" s="12">
+      <c r="A403" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B403" t="s" s="12">
+      <c r="B403" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C403" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D403" t="s" s="12">
+      <c r="C403" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D403" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E403" t="s" s="12">
+      <c r="E403" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F403" t="s" s="12">
+      <c r="F403" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G403" t="s" s="12">
+      <c r="G403" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H403" t="s" s="12">
+      <c r="H403" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11849,28 +11867,28 @@
       </c>
     </row>
     <row r="405">
-      <c r="B405" t="s" s="12">
+      <c r="B405" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C405" t="s" s="12">
+      <c r="C405" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D405" t="s" s="12">
+      <c r="D405" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E405" t="s" s="12">
+      <c r="E405" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F405" t="s" s="12">
+      <c r="F405" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G405" t="s" s="12">
+      <c r="G405" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H405" t="s" s="12">
+      <c r="H405" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I405" t="s" s="12">
+      <c r="I405" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11929,10 +11947,10 @@
       <c r="I407">
         <f>((C407-C406)^2+(D407- D406)^2)^.5</f>
       </c>
-      <c r="J407" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K407" s="12" t="s">
+      <c r="J407" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K407" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L407" t="n">
@@ -11976,28 +11994,28 @@
       </c>
     </row>
     <row r="409">
-      <c r="A409" t="s" s="12">
+      <c r="A409" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B409" t="s" s="12">
+      <c r="B409" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C409" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D409" t="s" s="12">
+      <c r="C409" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D409" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E409" t="s" s="12">
+      <c r="E409" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F409" t="s" s="12">
+      <c r="F409" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G409" t="s" s="12">
+      <c r="G409" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H409" t="s" s="12">
+      <c r="H409" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -12022,28 +12040,28 @@
       </c>
     </row>
     <row r="411">
-      <c r="B411" t="s" s="12">
+      <c r="B411" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C411" t="s" s="12">
+      <c r="C411" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D411" t="s" s="12">
+      <c r="D411" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E411" t="s" s="12">
+      <c r="E411" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F411" t="s" s="12">
+      <c r="F411" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G411" t="s" s="12">
+      <c r="G411" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H411" t="s" s="12">
+      <c r="H411" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I411" t="s" s="12">
+      <c r="I411" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12102,10 +12120,10 @@
       <c r="I413">
         <f>((C413-C412)^2+(D413- D412)^2)^.5</f>
       </c>
-      <c r="J413" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K413" s="12" t="s">
+      <c r="J413" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K413" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L413" t="n">
@@ -12149,28 +12167,28 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" t="s" s="12">
+      <c r="A415" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B415" t="s" s="12">
+      <c r="B415" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C415" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D415" t="s" s="12">
+      <c r="C415" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D415" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E415" t="s" s="12">
+      <c r="E415" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F415" t="s" s="12">
+      <c r="F415" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G415" t="s" s="12">
+      <c r="G415" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H415" t="s" s="12">
+      <c r="H415" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -12195,28 +12213,28 @@
       </c>
     </row>
     <row r="417">
-      <c r="B417" t="s" s="12">
+      <c r="B417" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C417" t="s" s="12">
+      <c r="C417" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D417" t="s" s="12">
+      <c r="D417" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E417" t="s" s="12">
+      <c r="E417" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F417" t="s" s="12">
+      <c r="F417" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G417" t="s" s="12">
+      <c r="G417" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H417" t="s" s="12">
+      <c r="H417" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I417" t="s" s="12">
+      <c r="I417" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12275,10 +12293,10 @@
       <c r="I419">
         <f>((C419-C418)^2+(D419- D418)^2)^.5</f>
       </c>
-      <c r="J419" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K419" s="12" t="s">
+      <c r="J419" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K419" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L419" t="n">
@@ -12322,28 +12340,28 @@
       </c>
     </row>
     <row r="421">
-      <c r="A421" t="s" s="12">
+      <c r="A421" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B421" t="s" s="12">
+      <c r="B421" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C421" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D421" t="s" s="12">
+      <c r="C421" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D421" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E421" t="s" s="12">
+      <c r="E421" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F421" t="s" s="12">
+      <c r="F421" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G421" t="s" s="12">
+      <c r="G421" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H421" t="s" s="12">
+      <c r="H421" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -12368,28 +12386,28 @@
       </c>
     </row>
     <row r="423">
-      <c r="B423" t="s" s="12">
+      <c r="B423" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C423" t="s" s="12">
+      <c r="C423" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D423" t="s" s="12">
+      <c r="D423" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E423" t="s" s="12">
+      <c r="E423" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F423" t="s" s="12">
+      <c r="F423" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G423" t="s" s="12">
+      <c r="G423" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H423" t="s" s="12">
+      <c r="H423" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I423" t="s" s="12">
+      <c r="I423" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12448,10 +12466,10 @@
       <c r="I425">
         <f>((C425-C424)^2+(D425- D424)^2)^.5</f>
       </c>
-      <c r="J425" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K425" s="12" t="s">
+      <c r="J425" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K425" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L425" t="n">
@@ -12495,28 +12513,28 @@
       </c>
     </row>
     <row r="427">
-      <c r="A427" t="s" s="12">
+      <c r="A427" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B427" t="s" s="12">
+      <c r="B427" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C427" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D427" t="s" s="12">
+      <c r="C427" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D427" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E427" t="s" s="12">
+      <c r="E427" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F427" t="s" s="12">
+      <c r="F427" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G427" t="s" s="12">
+      <c r="G427" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H427" t="s" s="12">
+      <c r="H427" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -12541,28 +12559,28 @@
       </c>
     </row>
     <row r="429">
-      <c r="B429" t="s" s="12">
+      <c r="B429" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C429" t="s" s="12">
+      <c r="C429" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D429" t="s" s="12">
+      <c r="D429" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E429" t="s" s="12">
+      <c r="E429" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F429" t="s" s="12">
+      <c r="F429" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G429" t="s" s="12">
+      <c r="G429" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H429" t="s" s="12">
+      <c r="H429" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I429" t="s" s="12">
+      <c r="I429" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12650,10 +12668,10 @@
       <c r="I432">
         <f>((C432-C431)^2+(D432- D431)^2)^.5</f>
       </c>
-      <c r="J432" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K432" s="12" t="s">
+      <c r="J432" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K432" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L432" t="n">
@@ -12697,28 +12715,28 @@
       </c>
     </row>
     <row r="434">
-      <c r="A434" t="s" s="12">
+      <c r="A434" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B434" t="s" s="12">
+      <c r="B434" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C434" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D434" t="s" s="12">
+      <c r="C434" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D434" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E434" t="s" s="12">
+      <c r="E434" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F434" t="s" s="12">
+      <c r="F434" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G434" t="s" s="12">
+      <c r="G434" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H434" t="s" s="12">
+      <c r="H434" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -12743,28 +12761,28 @@
       </c>
     </row>
     <row r="436">
-      <c r="B436" t="s" s="12">
+      <c r="B436" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C436" t="s" s="12">
+      <c r="C436" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D436" t="s" s="12">
+      <c r="D436" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E436" t="s" s="12">
+      <c r="E436" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F436" t="s" s="12">
+      <c r="F436" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G436" t="s" s="12">
+      <c r="G436" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H436" t="s" s="12">
+      <c r="H436" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I436" t="s" s="12">
+      <c r="I436" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12823,10 +12841,10 @@
       <c r="I438">
         <f>((C438-C437)^2+(D438- D437)^2)^.5</f>
       </c>
-      <c r="J438" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K438" s="12" t="s">
+      <c r="J438" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K438" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L438" t="n">
@@ -12870,28 +12888,28 @@
       </c>
     </row>
     <row r="440">
-      <c r="A440" t="s" s="12">
+      <c r="A440" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B440" t="s" s="12">
+      <c r="B440" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C440" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D440" t="s" s="12">
+      <c r="C440" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D440" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E440" t="s" s="12">
+      <c r="E440" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F440" t="s" s="12">
+      <c r="F440" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G440" t="s" s="12">
+      <c r="G440" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H440" t="s" s="12">
+      <c r="H440" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -12916,28 +12934,28 @@
       </c>
     </row>
     <row r="442">
-      <c r="B442" t="s" s="12">
+      <c r="B442" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C442" t="s" s="12">
+      <c r="C442" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D442" t="s" s="12">
+      <c r="D442" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E442" t="s" s="12">
+      <c r="E442" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F442" t="s" s="12">
+      <c r="F442" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G442" t="s" s="12">
+      <c r="G442" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H442" t="s" s="12">
+      <c r="H442" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I442" t="s" s="12">
+      <c r="I442" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12996,10 +13014,10 @@
       <c r="I444">
         <f>((C444-C443)^2+(D444- D443)^2)^.5</f>
       </c>
-      <c r="J444" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K444" s="12" t="s">
+      <c r="J444" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K444" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L444" t="n">
@@ -13043,28 +13061,28 @@
       </c>
     </row>
     <row r="446">
-      <c r="A446" t="s" s="12">
+      <c r="A446" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B446" t="s" s="12">
+      <c r="B446" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C446" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D446" t="s" s="12">
+      <c r="C446" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D446" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E446" t="s" s="12">
+      <c r="E446" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F446" t="s" s="12">
+      <c r="F446" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G446" t="s" s="12">
+      <c r="G446" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H446" t="s" s="12">
+      <c r="H446" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -13089,28 +13107,28 @@
       </c>
     </row>
     <row r="448">
-      <c r="B448" t="s" s="12">
+      <c r="B448" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C448" t="s" s="12">
+      <c r="C448" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D448" t="s" s="12">
+      <c r="D448" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E448" t="s" s="12">
+      <c r="E448" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F448" t="s" s="12">
+      <c r="F448" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G448" t="s" s="12">
+      <c r="G448" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H448" t="s" s="12">
+      <c r="H448" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I448" t="s" s="12">
+      <c r="I448" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -13169,10 +13187,10 @@
       <c r="I450">
         <f>((C450-C449)^2+(D450- D449)^2)^.5</f>
       </c>
-      <c r="J450" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K450" s="12" t="s">
+      <c r="J450" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K450" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L450" t="n">
@@ -13216,28 +13234,28 @@
       </c>
     </row>
     <row r="452">
-      <c r="A452" t="s" s="12">
+      <c r="A452" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B452" t="s" s="12">
+      <c r="B452" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C452" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D452" t="s" s="12">
+      <c r="C452" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D452" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E452" t="s" s="12">
+      <c r="E452" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F452" t="s" s="12">
+      <c r="F452" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G452" t="s" s="12">
+      <c r="G452" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H452" t="s" s="12">
+      <c r="H452" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -13262,28 +13280,28 @@
       </c>
     </row>
     <row r="454">
-      <c r="B454" t="s" s="12">
+      <c r="B454" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C454" t="s" s="12">
+      <c r="C454" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D454" t="s" s="12">
+      <c r="D454" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E454" t="s" s="12">
+      <c r="E454" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F454" t="s" s="12">
+      <c r="F454" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G454" t="s" s="12">
+      <c r="G454" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H454" t="s" s="12">
+      <c r="H454" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I454" t="s" s="12">
+      <c r="I454" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -13342,10 +13360,10 @@
       <c r="I456">
         <f>((C456-C455)^2+(D456- D455)^2)^.5</f>
       </c>
-      <c r="J456" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K456" s="12" t="s">
+      <c r="J456" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K456" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L456" t="n">
@@ -13389,28 +13407,28 @@
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="s" s="12">
+      <c r="A458" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B458" t="s" s="12">
+      <c r="B458" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C458" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D458" t="s" s="12">
+      <c r="C458" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D458" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E458" t="s" s="12">
+      <c r="E458" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F458" t="s" s="12">
+      <c r="F458" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G458" t="s" s="12">
+      <c r="G458" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H458" t="s" s="12">
+      <c r="H458" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -13435,28 +13453,28 @@
       </c>
     </row>
     <row r="460">
-      <c r="B460" t="s" s="12">
+      <c r="B460" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C460" t="s" s="12">
+      <c r="C460" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D460" t="s" s="12">
+      <c r="D460" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E460" t="s" s="12">
+      <c r="E460" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F460" t="s" s="12">
+      <c r="F460" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G460" t="s" s="12">
+      <c r="G460" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H460" t="s" s="12">
+      <c r="H460" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I460" t="s" s="12">
+      <c r="I460" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -13515,10 +13533,10 @@
       <c r="I462">
         <f>((C462-C461)^2+(D462- D461)^2)^.5</f>
       </c>
-      <c r="J462" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K462" s="12" t="s">
+      <c r="J462" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K462" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L462" t="n">
@@ -13562,28 +13580,28 @@
       </c>
     </row>
     <row r="464">
-      <c r="A464" t="s" s="12">
+      <c r="A464" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B464" t="s" s="12">
+      <c r="B464" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C464" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D464" t="s" s="12">
+      <c r="C464" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D464" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E464" t="s" s="12">
+      <c r="E464" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F464" t="s" s="12">
+      <c r="F464" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G464" t="s" s="12">
+      <c r="G464" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H464" t="s" s="12">
+      <c r="H464" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -13608,28 +13626,28 @@
       </c>
     </row>
     <row r="466">
-      <c r="B466" t="s" s="12">
+      <c r="B466" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C466" t="s" s="12">
+      <c r="C466" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D466" t="s" s="12">
+      <c r="D466" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E466" t="s" s="12">
+      <c r="E466" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F466" t="s" s="12">
+      <c r="F466" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G466" t="s" s="12">
+      <c r="G466" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H466" t="s" s="12">
+      <c r="H466" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I466" t="s" s="12">
+      <c r="I466" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -13688,10 +13706,10 @@
       <c r="I468">
         <f>((C468-C467)^2+(D468- D467)^2)^.5</f>
       </c>
-      <c r="J468" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K468" s="12" t="s">
+      <c r="J468" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K468" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L468" t="n">
@@ -13735,28 +13753,28 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" t="s" s="12">
+      <c r="A470" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B470" t="s" s="12">
+      <c r="B470" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C470" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D470" t="s" s="12">
+      <c r="C470" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D470" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E470" t="s" s="12">
+      <c r="E470" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F470" t="s" s="12">
+      <c r="F470" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G470" t="s" s="12">
+      <c r="G470" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H470" t="s" s="12">
+      <c r="H470" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -13781,28 +13799,28 @@
       </c>
     </row>
     <row r="472">
-      <c r="B472" t="s" s="12">
+      <c r="B472" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C472" t="s" s="12">
+      <c r="C472" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D472" t="s" s="12">
+      <c r="D472" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E472" t="s" s="12">
+      <c r="E472" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F472" t="s" s="12">
+      <c r="F472" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G472" t="s" s="12">
+      <c r="G472" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H472" t="s" s="12">
+      <c r="H472" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I472" t="s" s="12">
+      <c r="I472" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -13861,10 +13879,10 @@
       <c r="I474">
         <f>((C474-C473)^2+(D474- D473)^2)^.5</f>
       </c>
-      <c r="J474" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K474" s="12" t="s">
+      <c r="J474" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K474" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L474" t="n">
@@ -13908,28 +13926,28 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" t="s" s="12">
+      <c r="A476" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B476" t="s" s="12">
+      <c r="B476" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C476" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D476" t="s" s="12">
+      <c r="C476" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D476" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E476" t="s" s="12">
+      <c r="E476" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F476" t="s" s="12">
+      <c r="F476" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G476" t="s" s="12">
+      <c r="G476" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H476" t="s" s="12">
+      <c r="H476" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -13954,28 +13972,28 @@
       </c>
     </row>
     <row r="478">
-      <c r="B478" t="s" s="12">
+      <c r="B478" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C478" t="s" s="12">
+      <c r="C478" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D478" t="s" s="12">
+      <c r="D478" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E478" t="s" s="12">
+      <c r="E478" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F478" t="s" s="12">
+      <c r="F478" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G478" t="s" s="12">
+      <c r="G478" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H478" t="s" s="12">
+      <c r="H478" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I478" t="s" s="12">
+      <c r="I478" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -14034,10 +14052,10 @@
       <c r="I480">
         <f>((C480-C479)^2+(D480- D479)^2)^.5</f>
       </c>
-      <c r="J480" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K480" s="12" t="s">
+      <c r="J480" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K480" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L480" t="n">
@@ -14081,28 +14099,28 @@
       </c>
     </row>
     <row r="482">
-      <c r="A482" t="s" s="12">
+      <c r="A482" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B482" t="s" s="12">
+      <c r="B482" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C482" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D482" t="s" s="12">
+      <c r="C482" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D482" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E482" t="s" s="12">
+      <c r="E482" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F482" t="s" s="12">
+      <c r="F482" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G482" t="s" s="12">
+      <c r="G482" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H482" t="s" s="12">
+      <c r="H482" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -14127,28 +14145,28 @@
       </c>
     </row>
     <row r="484">
-      <c r="B484" t="s" s="12">
+      <c r="B484" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C484" t="s" s="12">
+      <c r="C484" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D484" t="s" s="12">
+      <c r="D484" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E484" t="s" s="12">
+      <c r="E484" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F484" t="s" s="12">
+      <c r="F484" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G484" t="s" s="12">
+      <c r="G484" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H484" t="s" s="12">
+      <c r="H484" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I484" t="s" s="12">
+      <c r="I484" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -14207,10 +14225,10 @@
       <c r="I486">
         <f>((C486-C485)^2+(D486- D485)^2)^.5</f>
       </c>
-      <c r="J486" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K486" s="12" t="s">
+      <c r="J486" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K486" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L486" t="n">
